--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>972695.2818364654</v>
+        <v>968837.1277900854</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33343748.21868626</v>
+        <v>33343748.21868627</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6025711.324761786</v>
+        <v>6025711.324761789</v>
       </c>
     </row>
     <row r="9">
@@ -1372,19 +1372,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>314.6949545442591</v>
       </c>
       <c r="D11" t="n">
-        <v>25.64927826578824</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.4770341286055</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>266.7106435996681</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>39.36371861119831</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>43.87040842116371</v>
+        <v>43.87040842116372</v>
       </c>
       <c r="T12" t="n">
         <v>124.7645818372411</v>
@@ -1533,7 +1533,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>24.75078664129092</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1542,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>147.728191541512</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.0511437916807</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>360.1616698650585</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>266.7106435996681</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>39.36371861119831</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.5194549705165</v>
       </c>
       <c r="U14" t="n">
-        <v>34.44939603257024</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>163.0800288950615</v>
       </c>
       <c r="H16" t="n">
-        <v>55.45620723761476</v>
+        <v>130.898461692684</v>
       </c>
       <c r="I16" t="n">
         <v>62.0511437916807</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7428278113418</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>239.7660459136613</v>
+        <v>81.92114529090151</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.5194549705165</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>278.3781843804314</v>
+        <v>370.3721828578447</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>43.87040842116371</v>
+        <v>43.87040842116372</v>
       </c>
       <c r="T18" t="n">
         <v>124.7645818372411</v>
@@ -2010,16 +2010,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>36.34806298911474</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0800288950615</v>
+        <v>100.7267858780113</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>130.898461692684</v>
       </c>
       <c r="I19" t="n">
         <v>62.0511437916807</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.7428278113418</v>
       </c>
       <c r="T19" t="n">
         <v>239.7660459136613</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2089,16 +2089,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>266.7106435996681</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>39.3637186111983</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>195.6459851751162</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>373.4166980636833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H21" t="n">
-        <v>31.46494373506147</v>
+        <v>31.46494373506148</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>43.8704084211637</v>
+        <v>43.87040842116372</v>
       </c>
       <c r="T21" t="n">
         <v>124.7645818372411</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>6.90228430202115</v>
+        <v>112.1195263333995</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>130.898461692684</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>194.7050414021723</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.4770341286055</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T23" t="n">
-        <v>209.5194549705165</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>76.13257556233648</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H24" t="n">
-        <v>31.46494373506147</v>
+        <v>31.46494373506148</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>43.8704084211637</v>
+        <v>43.87040842116372</v>
       </c>
       <c r="T24" t="n">
         <v>124.7645818372411</v>
@@ -2496,7 +2496,7 @@
         <v>130.898461692684</v>
       </c>
       <c r="I25" t="n">
-        <v>62.0511437916807</v>
+        <v>62.05114379168071</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>239.7660459136613</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6020161941877</v>
+        <v>275.6020161941873</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2560,16 +2560,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>133.5997149068338</v>
+        <v>395.4770341286055</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>39.3637186111983</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.5194549705165</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>185.5489487098381</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H27" t="n">
-        <v>31.46494373506147</v>
+        <v>31.46494373506148</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>43.8704084211637</v>
+        <v>43.87040842116372</v>
       </c>
       <c r="T27" t="n">
         <v>124.7645818372411</v>
@@ -2733,7 +2733,7 @@
         <v>130.898461692684</v>
       </c>
       <c r="I28" t="n">
-        <v>62.0511437916807</v>
+        <v>62.05114379168054</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>87.70519634275536</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>49.30038988534329</v>
       </c>
       <c r="H29" t="n">
         <v>266.7106435996681</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H30" t="n">
-        <v>31.46494373506147</v>
+        <v>31.46494373506148</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>43.8704084211637</v>
+        <v>43.87040842116372</v>
       </c>
       <c r="T30" t="n">
         <v>124.7645818372411</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317975</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2970,7 +2970,7 @@
         <v>130.898461692684</v>
       </c>
       <c r="I31" t="n">
-        <v>62.0511437916807</v>
+        <v>62.05114379168054</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0.003970266148567134</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>358.9947508316599</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H33" t="n">
-        <v>31.46494373506147</v>
+        <v>31.46494373506148</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>43.8704084211637</v>
+        <v>43.87040842116372</v>
       </c>
       <c r="T33" t="n">
         <v>124.7645818372411</v>
@@ -3204,10 +3204,10 @@
         <v>163.0800288950615</v>
       </c>
       <c r="H34" t="n">
-        <v>130.8984616926842</v>
+        <v>130.898461692684</v>
       </c>
       <c r="I34" t="n">
-        <v>62.0511437916807</v>
+        <v>62.05114379168071</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>239.7660459136613</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6020161941874</v>
+        <v>275.6020161941873</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>194.0938046602909</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>266.7106435996681</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>39.3637186111983</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.5194549705165</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>112.2610355673199</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -3362,7 +3362,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H36" t="n">
-        <v>31.46494373506147</v>
+        <v>31.46494373506148</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>43.8704084211637</v>
+        <v>43.87040842116372</v>
       </c>
       <c r="T36" t="n">
         <v>124.7645818372411</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3441,7 +3441,7 @@
         <v>163.0800288950615</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>130.898461692684</v>
       </c>
       <c r="I37" t="n">
         <v>62.0511437916807</v>
@@ -3477,10 +3477,10 @@
         <v>142.7428278113418</v>
       </c>
       <c r="T37" t="n">
-        <v>239.7660459136613</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6020161941874</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3489,7 +3489,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>237.4677832489974</v>
+        <v>96.4145709370913</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3508,19 +3508,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>194.4925423681851</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>141.1606405961013</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>39.3637186111983</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T38" t="n">
         <v>209.5194549705165</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H39" t="n">
-        <v>31.46494373506147</v>
+        <v>31.46494373506148</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>43.8704084211637</v>
+        <v>43.87040842116372</v>
       </c>
       <c r="T39" t="n">
         <v>124.7645818372411</v>
@@ -3669,19 +3669,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.52270106034047</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>130.898461692684</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.0511437916807</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7428278113418</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.7660459136613</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>155.0361654554377</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>111.0909218238758</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3751,13 +3751,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>266.7106435996681</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>39.3637186111983</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>187.0082686667146</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H42" t="n">
-        <v>31.46494373506147</v>
+        <v>31.46494373506148</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>43.8704084211637</v>
+        <v>43.87040842116372</v>
       </c>
       <c r="T42" t="n">
         <v>124.7645818372411</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>140.5907179768333</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>91.78232524968024</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.0511437916807</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7428278113418</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>239.7660459136613</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>251.606243396087</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>266.7106435996681</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>39.36371861119829</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.5194549705165</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>371.9245439743972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H45" t="n">
-        <v>31.46494373506147</v>
+        <v>31.46494373506148</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>43.8704084211637</v>
+        <v>43.87040842116372</v>
       </c>
       <c r="T45" t="n">
         <v>124.7645818372411</v>
@@ -4143,19 +4143,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>97.52270106034047</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0800288950615</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.05114379168069</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7428278113418</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>239.7660459136613</v>
       </c>
       <c r="U46" t="n">
         <v>275.6020161941874</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>187.6806606688607</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>742.7621763535288</v>
+        <v>1932.807713540738</v>
       </c>
       <c r="C11" t="n">
-        <v>742.7621763535288</v>
+        <v>1614.934022081891</v>
       </c>
       <c r="D11" t="n">
-        <v>716.8538144688943</v>
+        <v>1179.024237256335</v>
       </c>
       <c r="E11" t="n">
-        <v>716.8538144688943</v>
+        <v>745.2494924146305</v>
       </c>
       <c r="F11" t="n">
-        <v>716.8538144688943</v>
+        <v>317.3820628238382</v>
       </c>
       <c r="G11" t="n">
         <v>317.3820628238382</v>
@@ -5038,19 +5038,19 @@
         <v>47.97737231912299</v>
       </c>
       <c r="I11" t="n">
-        <v>120.346387652152</v>
+        <v>120.3463876521526</v>
       </c>
       <c r="J11" t="n">
-        <v>280.5668724472625</v>
+        <v>280.5668724472629</v>
       </c>
       <c r="K11" t="n">
-        <v>520.6958462790544</v>
+        <v>520.6958462790546</v>
       </c>
       <c r="L11" t="n">
         <v>818.5970719737411</v>
       </c>
       <c r="M11" t="n">
-        <v>1150.06958498017</v>
+        <v>1150.069584980171</v>
       </c>
       <c r="N11" t="n">
         <v>1486.905669790887</v>
@@ -5077,16 +5077,16 @@
         <v>2359.107284025646</v>
       </c>
       <c r="V11" t="n">
-        <v>1996.490333959473</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="W11" t="n">
-        <v>1996.490333959473</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="X11" t="n">
-        <v>1577.347870538783</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="Y11" t="n">
-        <v>1169.061746838437</v>
+        <v>2359.107284025646</v>
       </c>
     </row>
     <row r="12">
@@ -5111,7 +5111,7 @@
         <v>164.1146899932298</v>
       </c>
       <c r="G12" t="n">
-        <v>79.76014376868004</v>
+        <v>79.76014376868005</v>
       </c>
       <c r="H12" t="n">
         <v>47.97737231912299</v>
@@ -5129,7 +5129,7 @@
         <v>560.5837766791823</v>
       </c>
       <c r="M12" t="n">
-        <v>816.5037854930633</v>
+        <v>816.5037854930632</v>
       </c>
       <c r="N12" t="n">
         <v>1079.197235426495</v>
@@ -5138,7 +5138,7 @@
         <v>1319.510420784407</v>
       </c>
       <c r="P12" t="n">
-        <v>1485.229220531343</v>
+        <v>1512.382938418798</v>
       </c>
       <c r="Q12" t="n">
         <v>1614.159390801712</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>654.6828592324669</v>
+        <v>882.1025299183586</v>
       </c>
       <c r="C13" t="n">
-        <v>482.1211477156918</v>
+        <v>709.5408184015836</v>
       </c>
       <c r="D13" t="n">
-        <v>457.1203531285292</v>
+        <v>543.6628256031063</v>
       </c>
       <c r="E13" t="n">
-        <v>287.3623493792665</v>
+        <v>373.9048218538435</v>
       </c>
       <c r="F13" t="n">
-        <v>110.6552953410227</v>
+        <v>197.1977678155997</v>
       </c>
       <c r="G13" t="n">
-        <v>110.6552953410227</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="H13" t="n">
-        <v>110.6552953410227</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I13" t="n">
         <v>47.97737231912299</v>
       </c>
       <c r="J13" t="n">
-        <v>107.8447180416543</v>
+        <v>194.4244032063441</v>
       </c>
       <c r="K13" t="n">
-        <v>480.9836121568235</v>
+        <v>567.5632973215133</v>
       </c>
       <c r="L13" t="n">
-        <v>606.8767035733437</v>
+        <v>1111.666270505995</v>
       </c>
       <c r="M13" t="n">
-        <v>1199.097184139059</v>
+        <v>1443.49683990739</v>
       </c>
       <c r="N13" t="n">
-        <v>1328.677617538489</v>
+        <v>1573.07727330682</v>
       </c>
       <c r="O13" t="n">
-        <v>1860.95855161643</v>
+        <v>1692.765776752097</v>
       </c>
       <c r="P13" t="n">
-        <v>2310.879637112109</v>
+        <v>2142.686862247777</v>
       </c>
       <c r="Q13" t="n">
         <v>2381.785914783478</v>
@@ -5244,7 +5244,7 @@
         <v>1073.921148637346</v>
       </c>
       <c r="Y13" t="n">
-        <v>846.501477951454</v>
+        <v>1073.921148637346</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>751.1568076655431</v>
+        <v>1783.671804393752</v>
       </c>
       <c r="C14" t="n">
-        <v>751.1568076655431</v>
+        <v>1345.529331577176</v>
       </c>
       <c r="D14" t="n">
-        <v>751.1568076655431</v>
+        <v>909.6195467516201</v>
       </c>
       <c r="E14" t="n">
-        <v>317.3820628238382</v>
+        <v>475.8448019099152</v>
       </c>
       <c r="F14" t="n">
-        <v>317.3820628238382</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="G14" t="n">
-        <v>317.3820628238382</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="H14" t="n">
-        <v>47.97737231912298</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I14" t="n">
-        <v>120.3463876521519</v>
+        <v>120.346387652152</v>
       </c>
       <c r="J14" t="n">
-        <v>280.5668724472624</v>
+        <v>280.5668724472625</v>
       </c>
       <c r="K14" t="n">
-        <v>520.6958462790543</v>
+        <v>520.6958462790544</v>
       </c>
       <c r="L14" t="n">
-        <v>818.5970719737409</v>
+        <v>818.5970719737411</v>
       </c>
       <c r="M14" t="n">
         <v>1150.06958498017</v>
@@ -5293,10 +5293,10 @@
         <v>1486.905669790887</v>
       </c>
       <c r="O14" t="n">
-        <v>1804.970433130814</v>
+        <v>1804.970433130815</v>
       </c>
       <c r="P14" t="n">
-        <v>2076.431349953069</v>
+        <v>2076.43134995307</v>
       </c>
       <c r="Q14" t="n">
         <v>2280.287193219309</v>
@@ -5305,25 +5305,25 @@
         <v>2398.868615956149</v>
       </c>
       <c r="S14" t="n">
-        <v>2398.868615956149</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="T14" t="n">
-        <v>2398.868615956149</v>
+        <v>2147.471470924114</v>
       </c>
       <c r="U14" t="n">
-        <v>2364.07124622628</v>
+        <v>2147.471470924114</v>
       </c>
       <c r="V14" t="n">
-        <v>2001.454296160107</v>
+        <v>2147.471470924114</v>
       </c>
       <c r="W14" t="n">
-        <v>1596.59884157114</v>
+        <v>2147.471470924114</v>
       </c>
       <c r="X14" t="n">
-        <v>1177.456378150451</v>
+        <v>2147.471470924114</v>
       </c>
       <c r="Y14" t="n">
-        <v>1177.456378150451</v>
+        <v>2147.471470924114</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1265.164105606342</v>
+        <v>543.1656930669189</v>
       </c>
       <c r="C15" t="n">
-        <v>1158.707644442985</v>
+        <v>436.7092319035612</v>
       </c>
       <c r="D15" t="n">
-        <v>1063.617355589538</v>
+        <v>341.6189430501145</v>
       </c>
       <c r="E15" t="n">
-        <v>969.4969409164917</v>
+        <v>247.4985283770682</v>
       </c>
       <c r="F15" t="n">
-        <v>886.1131025326533</v>
+        <v>164.1146899932298</v>
       </c>
       <c r="G15" t="n">
-        <v>801.7585563081036</v>
+        <v>79.76014376868004</v>
       </c>
       <c r="H15" t="n">
-        <v>769.9757848585466</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I15" t="n">
-        <v>804.7511365841649</v>
+        <v>82.75272404474124</v>
       </c>
       <c r="J15" t="n">
-        <v>900.1773597079283</v>
+        <v>178.1789471685047</v>
       </c>
       <c r="K15" t="n">
-        <v>1063.275974291634</v>
+        <v>341.27756175221</v>
       </c>
       <c r="L15" t="n">
-        <v>1282.582189218606</v>
+        <v>560.5837766791823</v>
       </c>
       <c r="M15" t="n">
-        <v>1538.502198032487</v>
+        <v>789.3500676056083</v>
       </c>
       <c r="N15" t="n">
-        <v>1801.195647965918</v>
+        <v>1052.04351753904</v>
       </c>
       <c r="O15" t="n">
-        <v>2041.508833323831</v>
+        <v>1292.356702896952</v>
       </c>
       <c r="P15" t="n">
-        <v>2207.227633070767</v>
+        <v>1485.229220531343</v>
       </c>
       <c r="Q15" t="n">
-        <v>2336.157803341136</v>
+        <v>1614.159390801712</v>
       </c>
       <c r="R15" t="n">
-        <v>2398.868615956149</v>
+        <v>1676.870203416725</v>
       </c>
       <c r="S15" t="n">
-        <v>2354.555072096387</v>
+        <v>1632.556659556964</v>
       </c>
       <c r="T15" t="n">
-        <v>2228.53024195776</v>
+        <v>1506.531829418336</v>
       </c>
       <c r="U15" t="n">
-        <v>2052.261493872812</v>
+        <v>1330.263081333388</v>
       </c>
       <c r="V15" t="n">
-        <v>1853.143975934811</v>
+        <v>1131.145563395387</v>
       </c>
       <c r="W15" t="n">
-        <v>1667.821221668005</v>
+        <v>945.8228091285814</v>
       </c>
       <c r="X15" t="n">
-        <v>1512.953785906885</v>
+        <v>790.9553733674613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1386.468006686106</v>
+        <v>664.4695941466821</v>
       </c>
     </row>
     <row r="16">
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.303730305071</v>
+        <v>1092.508027734434</v>
       </c>
       <c r="C16" t="n">
-        <v>843.7420187882957</v>
+        <v>919.9463162176586</v>
       </c>
       <c r="D16" t="n">
-        <v>677.8640259898184</v>
+        <v>754.0683234191813</v>
       </c>
       <c r="E16" t="n">
-        <v>508.1060222405557</v>
+        <v>584.3103196699185</v>
       </c>
       <c r="F16" t="n">
-        <v>331.3989682023118</v>
+        <v>407.6032656316747</v>
       </c>
       <c r="G16" t="n">
-        <v>166.6716662881083</v>
+        <v>242.8759637174712</v>
       </c>
       <c r="H16" t="n">
         <v>110.6552953410227</v>
       </c>
       <c r="I16" t="n">
-        <v>47.97737231912298</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="J16" t="n">
-        <v>194.4244032063441</v>
+        <v>107.8447180416543</v>
       </c>
       <c r="K16" t="n">
-        <v>403.203805766086</v>
+        <v>480.9836121568235</v>
       </c>
       <c r="L16" t="n">
-        <v>947.3067789505671</v>
+        <v>1025.086585341305</v>
       </c>
       <c r="M16" t="n">
-        <v>1539.527259516282</v>
+        <v>1157.823198726107</v>
       </c>
       <c r="N16" t="n">
-        <v>1669.107692915713</v>
+        <v>1321.600798945371</v>
       </c>
       <c r="O16" t="n">
-        <v>2208.465445586771</v>
+        <v>1860.95855161643</v>
       </c>
       <c r="P16" t="n">
         <v>2310.879637112109</v>
@@ -5463,25 +5463,25 @@
         <v>2398.868615956149</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.683941399238</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="T16" t="n">
-        <v>2012.496016233923</v>
+        <v>2316.119984349178</v>
       </c>
       <c r="U16" t="n">
-        <v>2012.496016233923</v>
+        <v>2316.119984349178</v>
       </c>
       <c r="V16" t="n">
-        <v>1725.540508104354</v>
+        <v>2029.164476219609</v>
       </c>
       <c r="W16" t="n">
-        <v>1453.514103690645</v>
+        <v>1757.1380718059</v>
       </c>
       <c r="X16" t="n">
-        <v>1208.122349024058</v>
+        <v>1511.746317139313</v>
       </c>
       <c r="Y16" t="n">
-        <v>1208.122349024058</v>
+        <v>1284.326646453421</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>909.6195467516201</v>
+        <v>1191.43432046597</v>
       </c>
       <c r="C17" t="n">
-        <v>909.6195467516201</v>
+        <v>753.2918476493937</v>
       </c>
       <c r="D17" t="n">
-        <v>909.6195467516201</v>
+        <v>317.3820628238382</v>
       </c>
       <c r="E17" t="n">
-        <v>475.8448019099152</v>
+        <v>317.3820628238382</v>
       </c>
       <c r="F17" t="n">
-        <v>47.977372319123</v>
+        <v>317.3820628238382</v>
       </c>
       <c r="G17" t="n">
-        <v>47.977372319123</v>
+        <v>317.3820628238382</v>
       </c>
       <c r="H17" t="n">
-        <v>47.977372319123</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I17" t="n">
         <v>120.3463876521526</v>
@@ -5518,16 +5518,16 @@
         <v>280.5668724472631</v>
       </c>
       <c r="K17" t="n">
-        <v>520.6958462790551</v>
+        <v>520.6958462790549</v>
       </c>
       <c r="L17" t="n">
-        <v>818.5970719737417</v>
+        <v>818.5970719737414</v>
       </c>
       <c r="M17" t="n">
         <v>1150.069584980171</v>
       </c>
       <c r="N17" t="n">
-        <v>1486.905669790888</v>
+        <v>1486.905669790887</v>
       </c>
       <c r="O17" t="n">
         <v>1804.970433130815</v>
@@ -5536,31 +5536,31 @@
         <v>2076.43134995307</v>
       </c>
       <c r="Q17" t="n">
-        <v>2280.28719321931</v>
+        <v>2280.287193219309</v>
       </c>
       <c r="R17" t="n">
-        <v>2398.86861595615</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S17" t="n">
-        <v>2398.86861595615</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="T17" t="n">
-        <v>2398.86861595615</v>
+        <v>2187.232802854618</v>
       </c>
       <c r="U17" t="n">
-        <v>2398.86861595615</v>
+        <v>1928.164586550169</v>
       </c>
       <c r="V17" t="n">
-        <v>2036.251665889976</v>
+        <v>1565.547636483995</v>
       </c>
       <c r="W17" t="n">
-        <v>1755.061580657217</v>
+        <v>1191.43432046597</v>
       </c>
       <c r="X17" t="n">
-        <v>1335.919117236528</v>
+        <v>1191.43432046597</v>
       </c>
       <c r="Y17" t="n">
-        <v>1335.919117236528</v>
+        <v>1191.43432046597</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>79.76014376868005</v>
       </c>
       <c r="H18" t="n">
-        <v>47.977372319123</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I18" t="n">
-        <v>82.75272404474126</v>
+        <v>82.75272404474124</v>
       </c>
       <c r="J18" t="n">
         <v>178.1789471685047</v>
@@ -5603,16 +5603,16 @@
         <v>560.5837766791823</v>
       </c>
       <c r="M18" t="n">
-        <v>789.3500676056083</v>
+        <v>816.5037854930632</v>
       </c>
       <c r="N18" t="n">
-        <v>1052.04351753904</v>
+        <v>1079.197235426495</v>
       </c>
       <c r="O18" t="n">
-        <v>1292.356702896952</v>
+        <v>1319.510420784407</v>
       </c>
       <c r="P18" t="n">
-        <v>1485.229220531343</v>
+        <v>1512.382938418798</v>
       </c>
       <c r="Q18" t="n">
         <v>1614.159390801712</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>654.6828592324673</v>
+        <v>510.4981846755559</v>
       </c>
       <c r="C19" t="n">
-        <v>654.6828592324673</v>
+        <v>510.4981846755559</v>
       </c>
       <c r="D19" t="n">
-        <v>488.80486643399</v>
+        <v>344.6201918770786</v>
       </c>
       <c r="E19" t="n">
-        <v>452.0896512934701</v>
+        <v>344.6201918770786</v>
       </c>
       <c r="F19" t="n">
-        <v>275.3825972552262</v>
+        <v>344.6201918770786</v>
       </c>
       <c r="G19" t="n">
-        <v>110.6552953410227</v>
+        <v>242.8759637174712</v>
       </c>
       <c r="H19" t="n">
         <v>110.6552953410227</v>
       </c>
       <c r="I19" t="n">
-        <v>47.977372319123</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="J19" t="n">
-        <v>107.8447180416543</v>
+        <v>194.4244032063441</v>
       </c>
       <c r="K19" t="n">
-        <v>206.225157585688</v>
+        <v>379.1548843764027</v>
       </c>
       <c r="L19" t="n">
-        <v>332.1182490022081</v>
+        <v>505.0479757929228</v>
       </c>
       <c r="M19" t="n">
-        <v>924.3387295679233</v>
+        <v>1097.268456358638</v>
       </c>
       <c r="N19" t="n">
-        <v>1496.177966124998</v>
+        <v>1669.107692915713</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.535718796056</v>
+        <v>2208.465445586771</v>
       </c>
       <c r="P19" t="n">
-        <v>2310.87963711211</v>
+        <v>2310.879637112109</v>
       </c>
       <c r="Q19" t="n">
-        <v>2381.785914783479</v>
+        <v>2381.785914783478</v>
       </c>
       <c r="R19" t="n">
-        <v>2398.86861595615</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S19" t="n">
-        <v>2398.86861595615</v>
+        <v>2254.683941399238</v>
       </c>
       <c r="T19" t="n">
-        <v>2156.680690790835</v>
+        <v>2012.496016233924</v>
       </c>
       <c r="U19" t="n">
-        <v>1878.294815847212</v>
+        <v>1734.1101412903</v>
       </c>
       <c r="V19" t="n">
-        <v>1591.339307717642</v>
+        <v>1447.154633160731</v>
       </c>
       <c r="W19" t="n">
-        <v>1319.312903303934</v>
+        <v>1175.128228747022</v>
       </c>
       <c r="X19" t="n">
-        <v>1073.921148637346</v>
+        <v>929.7364740804348</v>
       </c>
       <c r="Y19" t="n">
-        <v>846.5014779514545</v>
+        <v>702.3168033945431</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1619.301750056763</v>
+        <v>1355.80437480296</v>
       </c>
       <c r="C20" t="n">
-        <v>1181.159277240186</v>
+        <v>917.6619019863833</v>
       </c>
       <c r="D20" t="n">
-        <v>745.2494924146305</v>
+        <v>481.7521171608278</v>
       </c>
       <c r="E20" t="n">
-        <v>745.2494924146305</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="F20" t="n">
-        <v>317.3820628238382</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="G20" t="n">
-        <v>317.3820628238382</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="H20" t="n">
-        <v>47.977372319123</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="I20" t="n">
-        <v>120.3463876521526</v>
+        <v>120.3463876521522</v>
       </c>
       <c r="J20" t="n">
-        <v>280.5668724472632</v>
+        <v>280.5668724472627</v>
       </c>
       <c r="K20" t="n">
-        <v>520.6958462790551</v>
+        <v>520.6958462790544</v>
       </c>
       <c r="L20" t="n">
-        <v>818.5970719737418</v>
+        <v>818.5970719737411</v>
       </c>
       <c r="M20" t="n">
-        <v>1150.069584980171</v>
+        <v>1150.06958498017</v>
       </c>
       <c r="N20" t="n">
-        <v>1486.905669790888</v>
+        <v>1486.905669790887</v>
       </c>
       <c r="O20" t="n">
-        <v>1804.970433130816</v>
+        <v>1804.970433130815</v>
       </c>
       <c r="P20" t="n">
-        <v>2076.431349953071</v>
+        <v>2076.431349953069</v>
       </c>
       <c r="Q20" t="n">
-        <v>2280.28719321931</v>
+        <v>2280.287193219309</v>
       </c>
       <c r="R20" t="n">
-        <v>2398.86861595615</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S20" t="n">
-        <v>2359.107284025647</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="T20" t="n">
-        <v>2359.107284025647</v>
+        <v>2201.246408708557</v>
       </c>
       <c r="U20" t="n">
-        <v>2359.107284025647</v>
+        <v>2201.246408708557</v>
       </c>
       <c r="V20" t="n">
-        <v>1996.490333959473</v>
+        <v>2201.246408708557</v>
       </c>
       <c r="W20" t="n">
-        <v>1996.490333959473</v>
+        <v>2201.246408708557</v>
       </c>
       <c r="X20" t="n">
-        <v>1996.490333959473</v>
+        <v>1782.103945287868</v>
       </c>
       <c r="Y20" t="n">
-        <v>1619.301750056763</v>
+        <v>1782.103945287868</v>
       </c>
     </row>
     <row r="21">
@@ -5822,31 +5822,31 @@
         <v>164.1146899932298</v>
       </c>
       <c r="G21" t="n">
-        <v>79.76014376868005</v>
+        <v>79.76014376868002</v>
       </c>
       <c r="H21" t="n">
-        <v>47.977372319123</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="I21" t="n">
-        <v>82.75272404474127</v>
+        <v>82.75272404474121</v>
       </c>
       <c r="J21" t="n">
-        <v>151.025229281049</v>
+        <v>178.1789471685046</v>
       </c>
       <c r="K21" t="n">
-        <v>314.1238438647545</v>
+        <v>341.27756175221</v>
       </c>
       <c r="L21" t="n">
-        <v>533.4300587917268</v>
+        <v>560.5837766791822</v>
       </c>
       <c r="M21" t="n">
-        <v>789.3500676056079</v>
+        <v>816.5037854930631</v>
       </c>
       <c r="N21" t="n">
-        <v>1052.04351753904</v>
+        <v>1079.197235426494</v>
       </c>
       <c r="O21" t="n">
-        <v>1292.356702896952</v>
+        <v>1292.356702896953</v>
       </c>
       <c r="P21" t="n">
         <v>1485.229220531343</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>702.3168033945435</v>
+        <v>510.4981846755555</v>
       </c>
       <c r="C22" t="n">
-        <v>529.7550918777685</v>
+        <v>337.9364731587804</v>
       </c>
       <c r="D22" t="n">
-        <v>363.8770990792912</v>
+        <v>337.9364731587804</v>
       </c>
       <c r="E22" t="n">
-        <v>356.9050947338152</v>
+        <v>224.6844263573668</v>
       </c>
       <c r="F22" t="n">
-        <v>180.1980406955714</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="G22" t="n">
-        <v>180.1980406955714</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="H22" t="n">
-        <v>47.977372319123</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="I22" t="n">
-        <v>47.977372319123</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="J22" t="n">
-        <v>194.4244032063442</v>
+        <v>194.4244032063441</v>
       </c>
       <c r="K22" t="n">
-        <v>567.5632973215135</v>
+        <v>567.5632973215133</v>
       </c>
       <c r="L22" t="n">
-        <v>1111.666270505995</v>
+        <v>693.4563887380334</v>
       </c>
       <c r="M22" t="n">
-        <v>1244.402883890797</v>
+        <v>826.1930021228355</v>
       </c>
       <c r="N22" t="n">
-        <v>1373.983317290227</v>
+        <v>1398.032238679911</v>
       </c>
       <c r="O22" t="n">
-        <v>1692.765776752098</v>
+        <v>1937.389991350969</v>
       </c>
       <c r="P22" t="n">
-        <v>2142.686862247778</v>
+        <v>2142.686862247777</v>
       </c>
       <c r="Q22" t="n">
-        <v>2381.785914783479</v>
+        <v>2381.785914783478</v>
       </c>
       <c r="R22" t="n">
-        <v>2398.86861595615</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.683941399239</v>
+        <v>2254.683941399238</v>
       </c>
       <c r="T22" t="n">
-        <v>2012.496016233924</v>
+        <v>2012.496016233923</v>
       </c>
       <c r="U22" t="n">
-        <v>1734.110141290301</v>
+        <v>1734.1101412903</v>
       </c>
       <c r="V22" t="n">
-        <v>1447.154633160731</v>
+        <v>1447.15463316073</v>
       </c>
       <c r="W22" t="n">
-        <v>1175.128228747023</v>
+        <v>1175.128228747022</v>
       </c>
       <c r="X22" t="n">
-        <v>929.7364740804353</v>
+        <v>929.7364740804344</v>
       </c>
       <c r="Y22" t="n">
-        <v>702.3168033945435</v>
+        <v>702.3168033945426</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1122.536785617746</v>
+        <v>2030.651253600979</v>
       </c>
       <c r="C23" t="n">
-        <v>684.3943128011692</v>
+        <v>1592.508780784403</v>
       </c>
       <c r="D23" t="n">
-        <v>487.722553809076</v>
+        <v>1156.598995958847</v>
       </c>
       <c r="E23" t="n">
-        <v>487.722553809076</v>
+        <v>1156.598995958847</v>
       </c>
       <c r="F23" t="n">
-        <v>59.85512421828376</v>
+        <v>728.7315663680549</v>
       </c>
       <c r="G23" t="n">
-        <v>59.85512421828376</v>
+        <v>329.259814722999</v>
       </c>
       <c r="H23" t="n">
-        <v>59.85512421828376</v>
+        <v>59.85512421828375</v>
       </c>
       <c r="I23" t="n">
         <v>132.2241395513133</v>
       </c>
       <c r="J23" t="n">
-        <v>292.4446243464239</v>
+        <v>727.6993117993417</v>
       </c>
       <c r="K23" t="n">
-        <v>532.5735981782157</v>
+        <v>967.8282856311333</v>
       </c>
       <c r="L23" t="n">
-        <v>830.4748238729024</v>
+        <v>1265.72951132582</v>
       </c>
       <c r="M23" t="n">
-        <v>1161.947336879332</v>
+        <v>1597.202024332249</v>
       </c>
       <c r="N23" t="n">
-        <v>1498.783421690049</v>
+        <v>1934.038109142966</v>
       </c>
       <c r="O23" t="n">
-        <v>2239.490583891311</v>
+        <v>2252.102872482893</v>
       </c>
       <c r="P23" t="n">
-        <v>2670.318944911109</v>
+        <v>2523.563789305148</v>
       </c>
       <c r="Q23" t="n">
-        <v>2874.174788177348</v>
+        <v>2727.419632571387</v>
       </c>
       <c r="R23" t="n">
-        <v>2992.756210914188</v>
+        <v>2992.756210914187</v>
       </c>
       <c r="S23" t="n">
-        <v>2992.756210914188</v>
+        <v>2952.994878983684</v>
       </c>
       <c r="T23" t="n">
-        <v>2781.120397812656</v>
+        <v>2952.994878983684</v>
       </c>
       <c r="U23" t="n">
-        <v>2781.120397812656</v>
+        <v>2952.994878983684</v>
       </c>
       <c r="V23" t="n">
-        <v>2781.120397812656</v>
+        <v>2952.994878983684</v>
       </c>
       <c r="W23" t="n">
-        <v>2376.264943223689</v>
+        <v>2876.093287506576</v>
       </c>
       <c r="X23" t="n">
-        <v>1957.122479803</v>
+        <v>2456.950824085887</v>
       </c>
       <c r="Y23" t="n">
-        <v>1548.836356102654</v>
+        <v>2456.950824085887</v>
       </c>
     </row>
     <row r="24">
@@ -6062,22 +6062,22 @@
         <v>91.63789566784081</v>
       </c>
       <c r="H24" t="n">
-        <v>59.85512421828376</v>
+        <v>59.85512421828375</v>
       </c>
       <c r="I24" t="n">
-        <v>67.47675805644678</v>
+        <v>94.630475943902</v>
       </c>
       <c r="J24" t="n">
-        <v>162.9029811802102</v>
+        <v>190.0566990676654</v>
       </c>
       <c r="K24" t="n">
-        <v>326.0015957639156</v>
+        <v>326.0015957639164</v>
       </c>
       <c r="L24" t="n">
-        <v>545.3078106908879</v>
+        <v>545.3078106908886</v>
       </c>
       <c r="M24" t="n">
-        <v>801.2278195047691</v>
+        <v>801.2278195047695</v>
       </c>
       <c r="N24" t="n">
         <v>1063.921269438201</v>
@@ -6126,16 +6126,16 @@
         <v>1104.385779633594</v>
       </c>
       <c r="C25" t="n">
-        <v>931.8240681168194</v>
+        <v>931.8240681168188</v>
       </c>
       <c r="D25" t="n">
-        <v>765.9460753183421</v>
+        <v>765.9460753183416</v>
       </c>
       <c r="E25" t="n">
-        <v>596.1880715690793</v>
+        <v>596.1880715690788</v>
       </c>
       <c r="F25" t="n">
-        <v>419.4810175308355</v>
+        <v>419.4810175308351</v>
       </c>
       <c r="G25" t="n">
         <v>254.7537156166319</v>
@@ -6144,7 +6144,7 @@
         <v>122.5330472401835</v>
       </c>
       <c r="I25" t="n">
-        <v>59.85512421828376</v>
+        <v>59.85512421828375</v>
       </c>
       <c r="J25" t="n">
         <v>206.3021551055049</v>
@@ -6153,46 +6153,46 @@
         <v>579.4410492206741</v>
       </c>
       <c r="L25" t="n">
-        <v>930.7427958866289</v>
+        <v>705.3341406371943</v>
       </c>
       <c r="M25" t="n">
-        <v>1522.963276452344</v>
+        <v>1297.554621202909</v>
       </c>
       <c r="N25" t="n">
-        <v>2094.802513009419</v>
+        <v>1869.393857759984</v>
       </c>
       <c r="O25" t="n">
-        <v>2634.160265680477</v>
+        <v>2408.751610431042</v>
       </c>
       <c r="P25" t="n">
-        <v>2736.574457205816</v>
+        <v>2736.574457205815</v>
       </c>
       <c r="Q25" t="n">
-        <v>2975.673509741517</v>
+        <v>2975.673509741516</v>
       </c>
       <c r="R25" t="n">
-        <v>2992.756210914188</v>
+        <v>2992.756210914187</v>
       </c>
       <c r="S25" t="n">
-        <v>2848.571536357277</v>
+        <v>2848.571536357276</v>
       </c>
       <c r="T25" t="n">
-        <v>2606.383611191963</v>
+        <v>2606.383611191962</v>
       </c>
       <c r="U25" t="n">
-        <v>2327.997736248339</v>
+        <v>2327.997736248338</v>
       </c>
       <c r="V25" t="n">
         <v>2041.042228118769</v>
       </c>
       <c r="W25" t="n">
-        <v>1769.015823705061</v>
+        <v>1769.01582370506</v>
       </c>
       <c r="X25" t="n">
         <v>1523.624069038473</v>
       </c>
       <c r="Y25" t="n">
-        <v>1296.204398352582</v>
+        <v>1296.204398352581</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1496.724018427808</v>
+        <v>1759.111523112414</v>
       </c>
       <c r="C26" t="n">
-        <v>1058.581545611231</v>
+        <v>1320.969050295837</v>
       </c>
       <c r="D26" t="n">
-        <v>622.6717607856758</v>
+        <v>1320.969050295837</v>
       </c>
       <c r="E26" t="n">
-        <v>622.6717607856758</v>
+        <v>887.1943054541321</v>
       </c>
       <c r="F26" t="n">
-        <v>194.8043311948836</v>
+        <v>459.3268758633398</v>
       </c>
       <c r="G26" t="n">
         <v>59.85512421828376</v>
@@ -6226,52 +6226,52 @@
         <v>132.2241395513133</v>
       </c>
       <c r="J26" t="n">
-        <v>727.6993117993418</v>
+        <v>705.3004026522451</v>
       </c>
       <c r="K26" t="n">
-        <v>967.8282856311336</v>
+        <v>945.4293764840369</v>
       </c>
       <c r="L26" t="n">
-        <v>1265.72951132582</v>
+        <v>1243.330602178723</v>
       </c>
       <c r="M26" t="n">
-        <v>1597.20202433225</v>
+        <v>1574.803115185153</v>
       </c>
       <c r="N26" t="n">
-        <v>1934.038109142967</v>
+        <v>1911.639199995869</v>
       </c>
       <c r="O26" t="n">
-        <v>2252.102872482894</v>
+        <v>2229.703963335797</v>
       </c>
       <c r="P26" t="n">
-        <v>2523.563789305149</v>
+        <v>2501.164880158052</v>
       </c>
       <c r="Q26" t="n">
-        <v>2727.419632571389</v>
+        <v>2705.020723424291</v>
       </c>
       <c r="R26" t="n">
         <v>2992.756210914188</v>
       </c>
       <c r="S26" t="n">
-        <v>2952.994878983685</v>
+        <v>2992.756210914188</v>
       </c>
       <c r="T26" t="n">
-        <v>2952.994878983685</v>
+        <v>2781.120397812656</v>
       </c>
       <c r="U26" t="n">
-        <v>2693.926662679236</v>
+        <v>2781.120397812656</v>
       </c>
       <c r="V26" t="n">
-        <v>2331.309712613062</v>
+        <v>2781.120397812656</v>
       </c>
       <c r="W26" t="n">
-        <v>2331.309712613062</v>
+        <v>2593.697217297668</v>
       </c>
       <c r="X26" t="n">
-        <v>2331.309712613062</v>
+        <v>2593.697217297668</v>
       </c>
       <c r="Y26" t="n">
-        <v>1923.023588912716</v>
+        <v>2185.411093597321</v>
       </c>
     </row>
     <row r="27">
@@ -6302,22 +6302,22 @@
         <v>59.85512421828376</v>
       </c>
       <c r="I27" t="n">
-        <v>94.63047594390203</v>
+        <v>94.630475943902</v>
       </c>
       <c r="J27" t="n">
-        <v>190.0566990676655</v>
+        <v>190.0566990676654</v>
       </c>
       <c r="K27" t="n">
-        <v>353.1553136513709</v>
+        <v>353.1553136513708</v>
       </c>
       <c r="L27" t="n">
-        <v>545.3078106908879</v>
+        <v>572.4615285783428</v>
       </c>
       <c r="M27" t="n">
-        <v>801.2278195047691</v>
+        <v>828.3815373922238</v>
       </c>
       <c r="N27" t="n">
-        <v>1063.921269438201</v>
+        <v>1091.074987325655</v>
       </c>
       <c r="O27" t="n">
         <v>1304.234454796113</v>
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1104.385779633595</v>
+        <v>1104.385779633594</v>
       </c>
       <c r="C28" t="n">
-        <v>931.8240681168195</v>
+        <v>931.8240681168191</v>
       </c>
       <c r="D28" t="n">
-        <v>765.9460753183423</v>
+        <v>765.9460753183419</v>
       </c>
       <c r="E28" t="n">
-        <v>596.1880715690795</v>
+        <v>596.1880715690791</v>
       </c>
       <c r="F28" t="n">
-        <v>419.4810175308357</v>
+        <v>419.4810175308353</v>
       </c>
       <c r="G28" t="n">
         <v>254.7537156166318</v>
       </c>
       <c r="H28" t="n">
-        <v>122.5330472401834</v>
+        <v>122.5330472401833</v>
       </c>
       <c r="I28" t="n">
         <v>59.85512421828376</v>
       </c>
       <c r="J28" t="n">
-        <v>119.7224699408151</v>
+        <v>206.3021551055049</v>
       </c>
       <c r="K28" t="n">
-        <v>218.1029094848488</v>
+        <v>579.4410492206741</v>
       </c>
       <c r="L28" t="n">
-        <v>762.2058826693299</v>
+        <v>705.3341406371943</v>
       </c>
       <c r="M28" t="n">
-        <v>1354.426363235045</v>
+        <v>1297.554621202909</v>
       </c>
       <c r="N28" t="n">
-        <v>1926.26559979212</v>
+        <v>1869.393857759984</v>
       </c>
       <c r="O28" t="n">
-        <v>2465.623352463178</v>
+        <v>2408.751610431042</v>
       </c>
       <c r="P28" t="n">
-        <v>2904.767232070148</v>
+        <v>2736.574457205815</v>
       </c>
       <c r="Q28" t="n">
         <v>2975.673509741517</v>
@@ -6414,13 +6414,13 @@
         <v>2848.571536357277</v>
       </c>
       <c r="T28" t="n">
-        <v>2606.383611191963</v>
+        <v>2606.383611191962</v>
       </c>
       <c r="U28" t="n">
         <v>2327.997736248339</v>
       </c>
       <c r="V28" t="n">
-        <v>2041.04222811877</v>
+        <v>2041.042228118769</v>
       </c>
       <c r="W28" t="n">
         <v>1769.015823705061</v>
@@ -6429,7 +6429,7 @@
         <v>1523.624069038473</v>
       </c>
       <c r="Y28" t="n">
-        <v>1296.204398352582</v>
+        <v>1296.204398352581</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1289.768139798205</v>
+        <v>1676.610147602611</v>
       </c>
       <c r="C29" t="n">
-        <v>851.6256669816285</v>
+        <v>1676.610147602611</v>
       </c>
       <c r="D29" t="n">
-        <v>851.6256669816285</v>
+        <v>1240.700362777055</v>
       </c>
       <c r="E29" t="n">
-        <v>417.8509221399236</v>
+        <v>806.9256179353501</v>
       </c>
       <c r="F29" t="n">
-        <v>329.259814722999</v>
+        <v>379.0581883445579</v>
       </c>
       <c r="G29" t="n">
         <v>329.259814722999</v>
@@ -6463,16 +6463,16 @@
         <v>132.2241395513133</v>
       </c>
       <c r="J29" t="n">
-        <v>705.3004026522441</v>
+        <v>705.3004026522451</v>
       </c>
       <c r="K29" t="n">
-        <v>945.429376484036</v>
+        <v>945.4293764840369</v>
       </c>
       <c r="L29" t="n">
         <v>1243.330602178723</v>
       </c>
       <c r="M29" t="n">
-        <v>1574.803115185152</v>
+        <v>1574.803115185153</v>
       </c>
       <c r="N29" t="n">
         <v>1911.639199995869</v>
@@ -6502,13 +6502,13 @@
         <v>2522.052181508207</v>
       </c>
       <c r="W29" t="n">
-        <v>2117.196726919241</v>
+        <v>2522.052181508207</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.054263498552</v>
+        <v>2102.909718087518</v>
       </c>
       <c r="Y29" t="n">
-        <v>1289.768139798205</v>
+        <v>2102.909718087518</v>
       </c>
     </row>
     <row r="30">
@@ -6539,19 +6539,19 @@
         <v>59.85512421828376</v>
       </c>
       <c r="I30" t="n">
-        <v>94.63047594390203</v>
+        <v>67.47675805644769</v>
       </c>
       <c r="J30" t="n">
-        <v>162.9029811802102</v>
+        <v>162.9029811802111</v>
       </c>
       <c r="K30" t="n">
-        <v>326.0015957639156</v>
+        <v>326.0015957639164</v>
       </c>
       <c r="L30" t="n">
-        <v>545.3078106908879</v>
+        <v>545.3078106908886</v>
       </c>
       <c r="M30" t="n">
-        <v>801.2278195047691</v>
+        <v>801.2278195047695</v>
       </c>
       <c r="N30" t="n">
         <v>1063.921269438201</v>
@@ -6600,46 +6600,46 @@
         <v>1104.385779633594</v>
       </c>
       <c r="C31" t="n">
-        <v>931.8240681168194</v>
+        <v>931.8240681168191</v>
       </c>
       <c r="D31" t="n">
-        <v>765.9460753183421</v>
+        <v>765.9460753183419</v>
       </c>
       <c r="E31" t="n">
-        <v>596.1880715690793</v>
+        <v>596.1880715690791</v>
       </c>
       <c r="F31" t="n">
-        <v>419.4810175308355</v>
+        <v>419.4810175308353</v>
       </c>
       <c r="G31" t="n">
-        <v>254.7537156166319</v>
+        <v>254.7537156166318</v>
       </c>
       <c r="H31" t="n">
-        <v>122.5330472401835</v>
+        <v>122.5330472401833</v>
       </c>
       <c r="I31" t="n">
         <v>59.85512421828376</v>
       </c>
       <c r="J31" t="n">
-        <v>119.7224699408151</v>
+        <v>206.3021551055049</v>
       </c>
       <c r="K31" t="n">
-        <v>218.1029094848488</v>
+        <v>579.4410492206741</v>
       </c>
       <c r="L31" t="n">
-        <v>583.2359019162869</v>
+        <v>705.3341406371943</v>
       </c>
       <c r="M31" t="n">
-        <v>1175.456382482002</v>
+        <v>1297.554621202909</v>
       </c>
       <c r="N31" t="n">
-        <v>1747.295619039077</v>
+        <v>1869.393857759984</v>
       </c>
       <c r="O31" t="n">
-        <v>2286.653371710135</v>
+        <v>2408.751610431042</v>
       </c>
       <c r="P31" t="n">
-        <v>2736.574457205816</v>
+        <v>2736.574457205815</v>
       </c>
       <c r="Q31" t="n">
         <v>2975.673509741517</v>
@@ -6651,22 +6651,22 @@
         <v>2848.571536357277</v>
       </c>
       <c r="T31" t="n">
-        <v>2606.383611191963</v>
+        <v>2606.383611191962</v>
       </c>
       <c r="U31" t="n">
         <v>2327.997736248339</v>
       </c>
       <c r="V31" t="n">
-        <v>2041.04222811877</v>
+        <v>2041.042228118769</v>
       </c>
       <c r="W31" t="n">
         <v>1769.015823705061</v>
       </c>
       <c r="X31" t="n">
-        <v>1523.624069038474</v>
+        <v>1523.624069038473</v>
       </c>
       <c r="Y31" t="n">
-        <v>1296.204398352582</v>
+        <v>1296.204398352581</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>132.2241395513133</v>
       </c>
       <c r="J32" t="n">
-        <v>292.4446243464239</v>
+        <v>727.6993117993417</v>
       </c>
       <c r="K32" t="n">
-        <v>532.5735981782157</v>
+        <v>967.8282856311333</v>
       </c>
       <c r="L32" t="n">
-        <v>830.4748238729024</v>
+        <v>1265.72951132582</v>
       </c>
       <c r="M32" t="n">
-        <v>1161.947336879332</v>
+        <v>1597.202024332249</v>
       </c>
       <c r="N32" t="n">
-        <v>1498.783421690049</v>
+        <v>1934.038109142966</v>
       </c>
       <c r="O32" t="n">
-        <v>1816.848185029976</v>
+        <v>2252.102872482893</v>
       </c>
       <c r="P32" t="n">
-        <v>2088.309101852231</v>
+        <v>2523.563789305148</v>
       </c>
       <c r="Q32" t="n">
-        <v>2829.016264053493</v>
+        <v>2727.419632571387</v>
       </c>
       <c r="R32" t="n">
         <v>2992.756210914188</v>
@@ -6733,10 +6733,10 @@
         <v>2992.756210914188</v>
       </c>
       <c r="U32" t="n">
-        <v>2992.752200544341</v>
+        <v>2992.756210914188</v>
       </c>
       <c r="V32" t="n">
-        <v>2630.135250478168</v>
+        <v>2992.756210914188</v>
       </c>
       <c r="W32" t="n">
         <v>2630.135250478168</v>
@@ -6776,25 +6776,25 @@
         <v>59.85512421828376</v>
       </c>
       <c r="I33" t="n">
-        <v>67.47675805644678</v>
+        <v>94.630475943902</v>
       </c>
       <c r="J33" t="n">
-        <v>162.9029811802102</v>
+        <v>190.0566990676654</v>
       </c>
       <c r="K33" t="n">
-        <v>326.0015957639156</v>
+        <v>353.1553136513708</v>
       </c>
       <c r="L33" t="n">
-        <v>545.3078106908879</v>
+        <v>572.4615285783428</v>
       </c>
       <c r="M33" t="n">
-        <v>801.2278195047691</v>
+        <v>828.3815373922238</v>
       </c>
       <c r="N33" t="n">
-        <v>1063.921269438201</v>
+        <v>1091.074987325655</v>
       </c>
       <c r="O33" t="n">
-        <v>1304.234454796113</v>
+        <v>1331.388172683568</v>
       </c>
       <c r="P33" t="n">
         <v>1497.106972430504</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1104.385779633595</v>
+        <v>1104.385779633594</v>
       </c>
       <c r="C34" t="n">
-        <v>931.8240681168196</v>
+        <v>931.8240681168193</v>
       </c>
       <c r="D34" t="n">
-        <v>765.9460753183423</v>
+        <v>765.9460753183421</v>
       </c>
       <c r="E34" t="n">
-        <v>596.1880715690795</v>
+        <v>596.1880715690793</v>
       </c>
       <c r="F34" t="n">
-        <v>419.4810175308357</v>
+        <v>419.4810175308355</v>
       </c>
       <c r="G34" t="n">
-        <v>254.7537156166322</v>
+        <v>254.7537156166319</v>
       </c>
       <c r="H34" t="n">
         <v>122.5330472401835</v>
@@ -6858,25 +6858,25 @@
         <v>59.85512421828376</v>
       </c>
       <c r="J34" t="n">
-        <v>119.7224699408151</v>
+        <v>206.3021551055049</v>
       </c>
       <c r="K34" t="n">
-        <v>386.6398227021477</v>
+        <v>579.4410492206741</v>
       </c>
       <c r="L34" t="n">
-        <v>930.7427958866289</v>
+        <v>1123.544022405155</v>
       </c>
       <c r="M34" t="n">
-        <v>1522.963276452344</v>
+        <v>1256.280635789957</v>
       </c>
       <c r="N34" t="n">
-        <v>2094.802513009419</v>
+        <v>1747.295619039077</v>
       </c>
       <c r="O34" t="n">
-        <v>2634.160265680477</v>
+        <v>2286.653371710135</v>
       </c>
       <c r="P34" t="n">
-        <v>2736.574457205816</v>
+        <v>2736.574457205815</v>
       </c>
       <c r="Q34" t="n">
         <v>2975.673509741517</v>
@@ -6888,22 +6888,22 @@
         <v>2848.571536357277</v>
       </c>
       <c r="T34" t="n">
-        <v>2606.383611191963</v>
+        <v>2606.383611191962</v>
       </c>
       <c r="U34" t="n">
         <v>2327.997736248339</v>
       </c>
       <c r="V34" t="n">
-        <v>2041.04222811877</v>
+        <v>2041.042228118769</v>
       </c>
       <c r="W34" t="n">
         <v>1769.015823705061</v>
       </c>
       <c r="X34" t="n">
-        <v>1523.624069038474</v>
+        <v>1523.624069038473</v>
       </c>
       <c r="Y34" t="n">
-        <v>1296.204398352582</v>
+        <v>1296.204398352581</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.934022081891</v>
+        <v>1783.671804393752</v>
       </c>
       <c r="C35" t="n">
-        <v>1614.934022081891</v>
+        <v>1345.529331577176</v>
       </c>
       <c r="D35" t="n">
-        <v>1179.024237256335</v>
+        <v>909.6195467516201</v>
       </c>
       <c r="E35" t="n">
-        <v>745.2494924146305</v>
+        <v>475.8448019099152</v>
       </c>
       <c r="F35" t="n">
-        <v>317.3820628238382</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="G35" t="n">
-        <v>317.3820628238382</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="H35" t="n">
-        <v>47.97737231912301</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I35" t="n">
-        <v>120.3463876521526</v>
+        <v>120.3463876521521</v>
       </c>
       <c r="J35" t="n">
         <v>280.5668724472631</v>
@@ -6943,7 +6943,7 @@
         <v>520.6958462790549</v>
       </c>
       <c r="L35" t="n">
-        <v>818.5970719737415</v>
+        <v>818.5970719737413</v>
       </c>
       <c r="M35" t="n">
         <v>1150.069584980171</v>
@@ -6952,37 +6952,37 @@
         <v>1486.905669790888</v>
       </c>
       <c r="O35" t="n">
-        <v>1804.970433130816</v>
+        <v>1804.970433130815</v>
       </c>
       <c r="P35" t="n">
-        <v>2076.431349953071</v>
+        <v>2076.43134995307</v>
       </c>
       <c r="Q35" t="n">
         <v>2280.28719321931</v>
       </c>
       <c r="R35" t="n">
-        <v>2398.86861595615</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S35" t="n">
-        <v>2359.107284025647</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="T35" t="n">
-        <v>2147.471470924115</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="U35" t="n">
-        <v>2147.471470924115</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="V35" t="n">
-        <v>2147.471470924115</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="W35" t="n">
-        <v>2034.07648550258</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="X35" t="n">
-        <v>1614.934022081891</v>
+        <v>1979.72615253546</v>
       </c>
       <c r="Y35" t="n">
-        <v>1614.934022081891</v>
+        <v>1979.72615253546</v>
       </c>
     </row>
     <row r="36">
@@ -7010,28 +7010,28 @@
         <v>79.76014376868005</v>
       </c>
       <c r="H36" t="n">
-        <v>47.97737231912301</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I36" t="n">
-        <v>82.75272404474127</v>
+        <v>82.75272404474124</v>
       </c>
       <c r="J36" t="n">
         <v>178.1789471685047</v>
       </c>
       <c r="K36" t="n">
-        <v>341.2775617522101</v>
+        <v>341.27756175221</v>
       </c>
       <c r="L36" t="n">
-        <v>560.5837766791825</v>
+        <v>560.5837766791823</v>
       </c>
       <c r="M36" t="n">
-        <v>816.5037854930636</v>
+        <v>816.5037854930632</v>
       </c>
       <c r="N36" t="n">
-        <v>1052.04351753904</v>
+        <v>1079.197235426495</v>
       </c>
       <c r="O36" t="n">
-        <v>1292.356702896952</v>
+        <v>1319.510420784407</v>
       </c>
       <c r="P36" t="n">
         <v>1485.229220531343</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>794.4093665595079</v>
+        <v>1092.508027734434</v>
       </c>
       <c r="C37" t="n">
-        <v>621.8476550427329</v>
+        <v>919.9463162176586</v>
       </c>
       <c r="D37" t="n">
-        <v>621.8476550427329</v>
+        <v>754.0683234191813</v>
       </c>
       <c r="E37" t="n">
-        <v>452.0896512934701</v>
+        <v>584.3103196699185</v>
       </c>
       <c r="F37" t="n">
-        <v>275.3825972552262</v>
+        <v>407.6032656316747</v>
       </c>
       <c r="G37" t="n">
-        <v>110.6552953410227</v>
+        <v>242.8759637174712</v>
       </c>
       <c r="H37" t="n">
         <v>110.6552953410227</v>
       </c>
       <c r="I37" t="n">
-        <v>47.97737231912301</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="J37" t="n">
         <v>107.8447180416543</v>
       </c>
       <c r="K37" t="n">
-        <v>480.9836121568236</v>
+        <v>480.9836121568235</v>
       </c>
       <c r="L37" t="n">
-        <v>606.8767035733438</v>
+        <v>1025.086585341305</v>
       </c>
       <c r="M37" t="n">
-        <v>739.613316958146</v>
+        <v>1157.823198726107</v>
       </c>
       <c r="N37" t="n">
-        <v>1311.452553515221</v>
+        <v>1287.403632125537</v>
       </c>
       <c r="O37" t="n">
-        <v>1850.810306186279</v>
+        <v>1692.765776752097</v>
       </c>
       <c r="P37" t="n">
-        <v>2142.686862247778</v>
+        <v>2142.686862247777</v>
       </c>
       <c r="Q37" t="n">
-        <v>2381.785914783479</v>
+        <v>2381.785914783478</v>
       </c>
       <c r="R37" t="n">
-        <v>2398.86861595615</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.683941399239</v>
+        <v>2254.683941399238</v>
       </c>
       <c r="T37" t="n">
-        <v>2012.496016233925</v>
+        <v>2254.683941399238</v>
       </c>
       <c r="U37" t="n">
-        <v>2012.496016233925</v>
+        <v>1976.298066455615</v>
       </c>
       <c r="V37" t="n">
-        <v>1725.540508104355</v>
+        <v>1689.342558326045</v>
       </c>
       <c r="W37" t="n">
-        <v>1453.514103690647</v>
+        <v>1417.316153912337</v>
       </c>
       <c r="X37" t="n">
-        <v>1213.647655964387</v>
+        <v>1319.927698420325</v>
       </c>
       <c r="Y37" t="n">
-        <v>986.227985278495</v>
+        <v>1092.508027734434</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>680.3442706478958</v>
+        <v>893.7433133181706</v>
       </c>
       <c r="C38" t="n">
-        <v>680.3442706478958</v>
+        <v>893.7433133181706</v>
       </c>
       <c r="D38" t="n">
-        <v>244.4344858223403</v>
+        <v>893.7433133181706</v>
       </c>
       <c r="E38" t="n">
-        <v>244.4344858223403</v>
+        <v>459.9685684764658</v>
       </c>
       <c r="F38" t="n">
-        <v>47.97737231912301</v>
+        <v>459.9685684764658</v>
       </c>
       <c r="G38" t="n">
-        <v>47.97737231912301</v>
+        <v>317.3820628238382</v>
       </c>
       <c r="H38" t="n">
-        <v>47.97737231912301</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I38" t="n">
-        <v>120.3463876521526</v>
+        <v>120.3463876521525</v>
       </c>
       <c r="J38" t="n">
         <v>280.5668724472631</v>
       </c>
       <c r="K38" t="n">
-        <v>520.695846279055</v>
+        <v>520.6958462790549</v>
       </c>
       <c r="L38" t="n">
-        <v>818.5970719737415</v>
+        <v>818.5970719737414</v>
       </c>
       <c r="M38" t="n">
         <v>1150.069584980171</v>
       </c>
       <c r="N38" t="n">
-        <v>1486.905669790888</v>
+        <v>1486.905669790887</v>
       </c>
       <c r="O38" t="n">
-        <v>1804.970433130816</v>
+        <v>1804.970433130815</v>
       </c>
       <c r="P38" t="n">
-        <v>2076.431349953071</v>
+        <v>2076.43134995307</v>
       </c>
       <c r="Q38" t="n">
-        <v>2280.28719321931</v>
+        <v>2280.287193219309</v>
       </c>
       <c r="R38" t="n">
-        <v>2398.86861595615</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S38" t="n">
-        <v>2359.107284025647</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="T38" t="n">
-        <v>2147.471470924115</v>
+        <v>2147.471470924114</v>
       </c>
       <c r="U38" t="n">
-        <v>1888.403254619667</v>
+        <v>2147.471470924114</v>
       </c>
       <c r="V38" t="n">
-        <v>1525.786304553493</v>
+        <v>2147.471470924114</v>
       </c>
       <c r="W38" t="n">
-        <v>1525.786304553493</v>
+        <v>2147.471470924114</v>
       </c>
       <c r="X38" t="n">
-        <v>1106.643841132804</v>
+        <v>1728.329007503425</v>
       </c>
       <c r="Y38" t="n">
-        <v>1106.643841132804</v>
+        <v>1320.042883803078</v>
       </c>
     </row>
     <row r="39">
@@ -7247,28 +7247,28 @@
         <v>79.76014376868005</v>
       </c>
       <c r="H39" t="n">
-        <v>47.97737231912301</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I39" t="n">
-        <v>55.59900615728557</v>
+        <v>82.75272404474124</v>
       </c>
       <c r="J39" t="n">
-        <v>151.025229281049</v>
+        <v>151.0252292810501</v>
       </c>
       <c r="K39" t="n">
-        <v>314.1238438647545</v>
+        <v>314.1238438647555</v>
       </c>
       <c r="L39" t="n">
-        <v>533.4300587917268</v>
+        <v>533.4300587917276</v>
       </c>
       <c r="M39" t="n">
-        <v>789.3500676056079</v>
+        <v>789.3500676056086</v>
       </c>
       <c r="N39" t="n">
         <v>1052.04351753904</v>
       </c>
       <c r="O39" t="n">
-        <v>1292.356702896952</v>
+        <v>1292.356702896953</v>
       </c>
       <c r="P39" t="n">
         <v>1485.229220531343</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>581.3156680327236</v>
+        <v>654.6828592324669</v>
       </c>
       <c r="C40" t="n">
-        <v>408.7539565159485</v>
+        <v>482.1211477156918</v>
       </c>
       <c r="D40" t="n">
-        <v>242.8759637174712</v>
+        <v>316.2431549172145</v>
       </c>
       <c r="E40" t="n">
-        <v>242.8759637174712</v>
+        <v>146.4851511679518</v>
       </c>
       <c r="F40" t="n">
-        <v>242.8759637174712</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="G40" t="n">
-        <v>242.8759637174712</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="H40" t="n">
-        <v>110.6552953410227</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I40" t="n">
-        <v>47.97737231912301</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="J40" t="n">
         <v>107.8447180416543</v>
       </c>
       <c r="K40" t="n">
-        <v>206.225157585688</v>
+        <v>480.9836121568235</v>
       </c>
       <c r="L40" t="n">
-        <v>750.3281307701692</v>
+        <v>1025.086585341305</v>
       </c>
       <c r="M40" t="n">
-        <v>1342.548611335885</v>
+        <v>1157.823198726107</v>
       </c>
       <c r="N40" t="n">
-        <v>1914.38784789296</v>
+        <v>1287.403632125537</v>
       </c>
       <c r="O40" t="n">
-        <v>2208.465445586772</v>
+        <v>1692.765776752097</v>
       </c>
       <c r="P40" t="n">
-        <v>2310.87963711211</v>
+        <v>2142.686862247777</v>
       </c>
       <c r="Q40" t="n">
-        <v>2381.785914783479</v>
+        <v>2381.785914783478</v>
       </c>
       <c r="R40" t="n">
-        <v>2398.86861595615</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.683941399239</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="T40" t="n">
-        <v>2012.496016233925</v>
+        <v>2156.680690790835</v>
       </c>
       <c r="U40" t="n">
-        <v>1734.110141290301</v>
+        <v>1878.294815847211</v>
       </c>
       <c r="V40" t="n">
-        <v>1447.154633160732</v>
+        <v>1591.339307717642</v>
       </c>
       <c r="W40" t="n">
-        <v>1175.128228747023</v>
+        <v>1319.312903303933</v>
       </c>
       <c r="X40" t="n">
-        <v>929.7364740804358</v>
+        <v>1073.921148637346</v>
       </c>
       <c r="Y40" t="n">
-        <v>773.1342867517108</v>
+        <v>846.501477951454</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1625.209065307675</v>
+        <v>1783.671804393752</v>
       </c>
       <c r="C41" t="n">
-        <v>1187.066592491099</v>
+        <v>1345.529331577176</v>
       </c>
       <c r="D41" t="n">
-        <v>751.1568076655431</v>
+        <v>909.6195467516201</v>
       </c>
       <c r="E41" t="n">
-        <v>317.3820628238382</v>
+        <v>475.8448019099152</v>
       </c>
       <c r="F41" t="n">
-        <v>317.3820628238382</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="G41" t="n">
-        <v>317.3820628238382</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="H41" t="n">
-        <v>47.97737231912301</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I41" t="n">
-        <v>120.3463876521526</v>
+        <v>120.3463876521525</v>
       </c>
       <c r="J41" t="n">
-        <v>280.5668724472632</v>
+        <v>280.566872447263</v>
       </c>
       <c r="K41" t="n">
-        <v>520.6958462790551</v>
+        <v>520.6958462790549</v>
       </c>
       <c r="L41" t="n">
-        <v>818.5970719737418</v>
+        <v>818.5970719737413</v>
       </c>
       <c r="M41" t="n">
         <v>1150.069584980171</v>
@@ -7426,37 +7426,37 @@
         <v>1486.905669790888</v>
       </c>
       <c r="O41" t="n">
-        <v>1804.970433130816</v>
+        <v>1804.970433130815</v>
       </c>
       <c r="P41" t="n">
-        <v>2076.431349953071</v>
+        <v>2076.43134995307</v>
       </c>
       <c r="Q41" t="n">
-        <v>2280.28719321931</v>
+        <v>2280.287193219309</v>
       </c>
       <c r="R41" t="n">
-        <v>2398.86861595615</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S41" t="n">
-        <v>2359.107284025647</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="T41" t="n">
-        <v>2359.107284025647</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="U41" t="n">
-        <v>2100.039067721198</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="V41" t="n">
-        <v>1737.422117655025</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="W41" t="n">
-        <v>1737.422117655025</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="X41" t="n">
-        <v>1737.422117655025</v>
+        <v>2209.97137487866</v>
       </c>
       <c r="Y41" t="n">
-        <v>1737.422117655025</v>
+        <v>2209.97137487866</v>
       </c>
     </row>
     <row r="42">
@@ -7484,28 +7484,28 @@
         <v>79.76014376868005</v>
       </c>
       <c r="H42" t="n">
-        <v>47.97737231912301</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I42" t="n">
-        <v>82.75272404474127</v>
+        <v>82.75272404474124</v>
       </c>
       <c r="J42" t="n">
-        <v>151.025229281049</v>
+        <v>178.1789471685047</v>
       </c>
       <c r="K42" t="n">
-        <v>314.1238438647545</v>
+        <v>341.27756175221</v>
       </c>
       <c r="L42" t="n">
-        <v>533.4300587917268</v>
+        <v>560.5837766791823</v>
       </c>
       <c r="M42" t="n">
-        <v>789.3500676056079</v>
+        <v>816.5037854930632</v>
       </c>
       <c r="N42" t="n">
-        <v>1052.04351753904</v>
+        <v>1079.197235426495</v>
       </c>
       <c r="O42" t="n">
-        <v>1292.356702896952</v>
+        <v>1319.510420784407</v>
       </c>
       <c r="P42" t="n">
         <v>1485.229220531343</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>929.7364740804358</v>
+        <v>654.6828592324669</v>
       </c>
       <c r="C43" t="n">
-        <v>787.7256478412102</v>
+        <v>482.1211477156918</v>
       </c>
       <c r="D43" t="n">
-        <v>621.8476550427329</v>
+        <v>482.1211477156918</v>
       </c>
       <c r="E43" t="n">
-        <v>452.0896512934701</v>
+        <v>389.4117282715703</v>
       </c>
       <c r="F43" t="n">
-        <v>275.3825972552262</v>
+        <v>212.7046742333265</v>
       </c>
       <c r="G43" t="n">
-        <v>110.6552953410227</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="H43" t="n">
-        <v>110.6552953410227</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I43" t="n">
-        <v>47.97737231912301</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="J43" t="n">
-        <v>194.4244032063442</v>
+        <v>107.8447180416543</v>
       </c>
       <c r="K43" t="n">
-        <v>491.1318575869747</v>
+        <v>480.9836121568235</v>
       </c>
       <c r="L43" t="n">
-        <v>617.0249490034948</v>
+        <v>891.0909772968064</v>
       </c>
       <c r="M43" t="n">
-        <v>749.7615623882971</v>
+        <v>1023.827590681609</v>
       </c>
       <c r="N43" t="n">
-        <v>1321.600798945372</v>
+        <v>1153.408024081039</v>
       </c>
       <c r="O43" t="n">
-        <v>1860.95855161643</v>
+        <v>1692.765776752097</v>
       </c>
       <c r="P43" t="n">
-        <v>2310.87963711211</v>
+        <v>2142.686862247777</v>
       </c>
       <c r="Q43" t="n">
-        <v>2381.785914783479</v>
+        <v>2381.785914783478</v>
       </c>
       <c r="R43" t="n">
-        <v>2398.86861595615</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.683941399239</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="T43" t="n">
-        <v>2012.496016233925</v>
+        <v>2156.680690790835</v>
       </c>
       <c r="U43" t="n">
-        <v>1734.110141290301</v>
+        <v>1878.294815847211</v>
       </c>
       <c r="V43" t="n">
-        <v>1447.154633160732</v>
+        <v>1591.339307717642</v>
       </c>
       <c r="W43" t="n">
-        <v>1175.128228747023</v>
+        <v>1319.312903303933</v>
       </c>
       <c r="X43" t="n">
-        <v>929.7364740804358</v>
+        <v>1073.921148637346</v>
       </c>
       <c r="Y43" t="n">
-        <v>929.7364740804358</v>
+        <v>846.501477951454</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>745.2494924146305</v>
+        <v>1609.952095405068</v>
       </c>
       <c r="C44" t="n">
-        <v>745.2494924146305</v>
+        <v>1171.809622588491</v>
       </c>
       <c r="D44" t="n">
-        <v>745.2494924146305</v>
+        <v>735.8998377629359</v>
       </c>
       <c r="E44" t="n">
-        <v>745.2494924146305</v>
+        <v>302.1250929212311</v>
       </c>
       <c r="F44" t="n">
-        <v>317.3820628238382</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="G44" t="n">
-        <v>317.3820628238382</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="H44" t="n">
-        <v>47.97737231912301</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I44" t="n">
-        <v>120.3463876521526</v>
+        <v>120.3463876521525</v>
       </c>
       <c r="J44" t="n">
-        <v>280.5668724472631</v>
+        <v>280.566872447263</v>
       </c>
       <c r="K44" t="n">
-        <v>520.6958462790551</v>
+        <v>520.6958462790549</v>
       </c>
       <c r="L44" t="n">
-        <v>818.597071973742</v>
+        <v>818.5970719737413</v>
       </c>
       <c r="M44" t="n">
-        <v>1150.069584980172</v>
+        <v>1150.069584980171</v>
       </c>
       <c r="N44" t="n">
-        <v>1486.905669790888</v>
+        <v>1486.905669790887</v>
       </c>
       <c r="O44" t="n">
-        <v>1804.970433130816</v>
+        <v>1804.970433130815</v>
       </c>
       <c r="P44" t="n">
-        <v>2076.431349953071</v>
+        <v>2076.43134995307</v>
       </c>
       <c r="Q44" t="n">
-        <v>2280.287193219311</v>
+        <v>2280.287193219309</v>
       </c>
       <c r="R44" t="n">
-        <v>2398.868615956151</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S44" t="n">
-        <v>2359.107284025647</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="T44" t="n">
-        <v>2147.471470924116</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="U44" t="n">
-        <v>1888.403254619667</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="V44" t="n">
-        <v>1525.786304553493</v>
+        <v>2036.251665889976</v>
       </c>
       <c r="W44" t="n">
-        <v>1120.930849964527</v>
+        <v>2036.251665889976</v>
       </c>
       <c r="X44" t="n">
-        <v>1120.930849964527</v>
+        <v>2036.251665889976</v>
       </c>
       <c r="Y44" t="n">
-        <v>745.2494924146305</v>
+        <v>2036.251665889976</v>
       </c>
     </row>
     <row r="45">
@@ -7721,28 +7721,28 @@
         <v>79.76014376868005</v>
       </c>
       <c r="H45" t="n">
-        <v>47.97737231912301</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I45" t="n">
-        <v>82.75272404474127</v>
+        <v>82.75272404474124</v>
       </c>
       <c r="J45" t="n">
-        <v>178.1789471685047</v>
+        <v>151.0252292810501</v>
       </c>
       <c r="K45" t="n">
-        <v>341.2775617522101</v>
+        <v>314.1238438647555</v>
       </c>
       <c r="L45" t="n">
-        <v>560.5837766791825</v>
+        <v>533.4300587917276</v>
       </c>
       <c r="M45" t="n">
-        <v>816.5037854930636</v>
+        <v>789.3500676056086</v>
       </c>
       <c r="N45" t="n">
-        <v>1079.197235426495</v>
+        <v>1052.04351753904</v>
       </c>
       <c r="O45" t="n">
-        <v>1292.356702896952</v>
+        <v>1292.356702896953</v>
       </c>
       <c r="P45" t="n">
         <v>1485.229220531343</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>790.5293556087224</v>
+        <v>654.6828592324669</v>
       </c>
       <c r="C46" t="n">
-        <v>617.9676440919474</v>
+        <v>482.1211477156918</v>
       </c>
       <c r="D46" t="n">
-        <v>452.0896512934701</v>
+        <v>316.2431549172145</v>
       </c>
       <c r="E46" t="n">
-        <v>452.0896512934701</v>
+        <v>146.4851511679518</v>
       </c>
       <c r="F46" t="n">
-        <v>275.3825972552262</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="G46" t="n">
-        <v>110.6552953410227</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="H46" t="n">
-        <v>110.6552953410227</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I46" t="n">
-        <v>47.97737231912301</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="J46" t="n">
         <v>107.8447180416543</v>
       </c>
       <c r="K46" t="n">
-        <v>206.225157585688</v>
+        <v>346.9880041123252</v>
       </c>
       <c r="L46" t="n">
-        <v>332.1182490022082</v>
+        <v>891.0909772968064</v>
       </c>
       <c r="M46" t="n">
-        <v>924.3387295679236</v>
+        <v>1023.827590681609</v>
       </c>
       <c r="N46" t="n">
-        <v>1496.177966124998</v>
+        <v>1153.408024081039</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.535718796056</v>
+        <v>1692.765776752097</v>
       </c>
       <c r="P46" t="n">
-        <v>2310.879637112111</v>
+        <v>2142.686862247777</v>
       </c>
       <c r="Q46" t="n">
-        <v>2381.78591478348</v>
+        <v>2381.785914783478</v>
       </c>
       <c r="R46" t="n">
-        <v>2398.868615956151</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.68394139924</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="T46" t="n">
-        <v>2254.68394139924</v>
+        <v>2156.680690790835</v>
       </c>
       <c r="U46" t="n">
-        <v>1976.298066455616</v>
+        <v>1878.294815847211</v>
       </c>
       <c r="V46" t="n">
-        <v>1689.342558326047</v>
+        <v>1591.339307717642</v>
       </c>
       <c r="W46" t="n">
-        <v>1417.316153912338</v>
+        <v>1319.312903303933</v>
       </c>
       <c r="X46" t="n">
-        <v>1171.924399245751</v>
+        <v>1073.921148637346</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.3479743277096</v>
+        <v>846.501477951454</v>
       </c>
     </row>
   </sheetData>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>201.1050060773669</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>416.7600309420843</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9084,25 +9084,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>111.5141040562709</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>34.54259274730703</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>87.22226426871208</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -9339,7 +9339,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>174.676491707793</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9564,19 +9564,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>201.1050060773671</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>103.9218983550199</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821538</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9652,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>426.9115140013475</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>160.9772163611547</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>148.2375309151112</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9801,7 +9801,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>227.6855103529642</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645587</v>
@@ -9813,7 +9813,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>227.6855103529638</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>417.0260386927489</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>148.2375309151107</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10032,13 +10032,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645587</v>
@@ -10050,10 +10050,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>340.1309980622536</v>
+        <v>227.6855103529642</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>417.0260386927478</v>
+        <v>417.0260386927489</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10269,13 +10269,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>241.6564656716344</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645587</v>
@@ -10287,7 +10287,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>227.6855103529642</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821538</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>542.2740595303253</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>45.61467083217713</v>
+        <v>148.2375309151116</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10506,25 +10506,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>170.2393062801</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>365.0854038885755</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
         <v>169.8916917821538</v>
@@ -10749,19 +10749,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>288.5592335164479</v>
       </c>
       <c r="P37" t="n">
-        <v>191.3761257941014</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
         <v>169.8916917821538</v>
@@ -10983,25 +10983,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>176.1506002510464</v>
+        <v>288.5592335164479</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,19 +11217,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>200.3303180167645</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>287.0851249731948</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512944</v>
@@ -11238,7 +11238,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>142.1846934612498</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>174.676491707794</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,19 +23260,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>119.0660935441518</v>
       </c>
       <c r="D11" t="n">
-        <v>405.9014087115116</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.4770341286055</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>256.4775341414042</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>139.4684262292016</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0800288950615</v>
+        <v>15.35183735354951</v>
       </c>
       <c r="H13" t="n">
         <v>130.898461692684</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.0511437916807</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>61.87490491500017</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>395.4770341286055</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>39.36371861119831</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.5194549705165</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>222.028138108834</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>75.44225445506919</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.7428278113418</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>157.8449006227598</v>
       </c>
       <c r="U16" t="n">
         <v>275.6020161941874</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>395.4770341286055</v>
       </c>
       <c r="H17" t="n">
-        <v>266.7106435996681</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>39.36371861119831</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T17" t="n">
-        <v>209.5194549705165</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>122.4287156626456</v>
+        <v>30.43471718523227</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -23898,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>131.7123607226554</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>62.35324301705016</v>
       </c>
       <c r="H19" t="n">
-        <v>130.898461692684</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.7428278113418</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,16 +23977,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>395.4770341286055</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T20" t="n">
-        <v>209.5194549705165</v>
+        <v>13.87346979540038</v>
       </c>
       <c r="U20" t="n">
         <v>256.4775341414042</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>30.78656439965977</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>161.158139409749</v>
+        <v>55.94089737837061</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>163.0800288950615</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>130.898461692684</v>
       </c>
       <c r="I22" t="n">
-        <v>62.0511437916807</v>
+        <v>62.05114379168071</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>236.8456455751276</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>395.4770341286055</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>266.7106435996681</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>39.3637186111983</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.5194549705165</v>
       </c>
       <c r="U23" t="n">
         <v>256.4775341414042</v>
@@ -24268,13 +24268,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>324.6743244807406</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24448,16 +24448,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>261.8773192217717</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>266.7106435996681</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T26" t="n">
-        <v>209.5194549705165</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>215.2579513332389</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>335.883558952129</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>395.4770341286055</v>
+        <v>346.1766442432622</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>39.3637186111983</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>39.3637186111983</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T32" t="n">
         <v>209.5194549705165</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4735638752556</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>41.81214921141708</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>227.9427701197677</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>395.4770341286055</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.5194549705165</v>
       </c>
       <c r="U35" t="n">
         <v>256.4775341414042</v>
@@ -25216,7 +25216,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>288.5458644757571</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>130.898461692684</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.7660459136613</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6020161941874</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>5.470053870924232</v>
+        <v>146.5232661828304</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25396,19 +25396,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>229.0962129266992</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.4770341286055</v>
+        <v>254.3163935325042</v>
       </c>
       <c r="H38" t="n">
-        <v>266.7106435996681</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25447,10 +25447,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>77.41728243752087</v>
       </c>
       <c r="G40" t="n">
         <v>163.0800288950615</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>130.898461692684</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.0511437916807</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.7428278113418</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>70.10930852359508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>310.9456529561829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>395.4770341286055</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T41" t="n">
         <v>209.5194549705165</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>227.9427701197678</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>30.24537642477398</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>76.27809846208987</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>130.898461692684</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.0511437916807</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.7428278113418</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>171.9825118987973</v>
       </c>
       <c r="G44" t="n">
         <v>395.4770341286055</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.5194549705165</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>32.27871848894586</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>77.41728243752087</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0800288950615</v>
       </c>
       <c r="H46" t="n">
         <v>130.898461692684</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.0511437916807</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.7428278113418</v>
       </c>
       <c r="T46" t="n">
-        <v>239.7660459136613</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>37.46481331017213</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>398471.5868823264</v>
+        <v>398471.5868823263</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>398471.5868823264</v>
+        <v>398471.5868823263</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>312802.6874218199</v>
+        <v>312802.6874218198</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>312802.68742182</v>
+        <v>312802.6874218198</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431792.3221340782</v>
+        <v>431792.3221340781</v>
       </c>
       <c r="C2" t="n">
+        <v>431792.322134078</v>
+      </c>
+      <c r="D2" t="n">
         <v>431792.3221340781</v>
-      </c>
-      <c r="D2" t="n">
-        <v>431792.3221340782</v>
       </c>
       <c r="E2" t="n">
         <v>262831.135848055</v>
@@ -26331,22 +26331,22 @@
         <v>262831.135848055</v>
       </c>
       <c r="H2" t="n">
-        <v>262831.135848055</v>
+        <v>262831.1358480549</v>
       </c>
       <c r="I2" t="n">
         <v>312078.0733214348</v>
       </c>
       <c r="J2" t="n">
-        <v>312078.0733214347</v>
+        <v>312078.0733214348</v>
       </c>
       <c r="K2" t="n">
-        <v>312078.0733214349</v>
+        <v>312078.0733214348</v>
       </c>
       <c r="L2" t="n">
         <v>312078.0733214348</v>
       </c>
       <c r="M2" t="n">
-        <v>262831.1358480551</v>
+        <v>262831.135848055</v>
       </c>
       <c r="N2" t="n">
         <v>262831.135848055</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>112452.1225892034</v>
+        <v>112452.1225892033</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
         <v>18586.89478745419</v>
@@ -26432,34 +26432,34 @@
         <v>18586.89478745419</v>
       </c>
       <c r="G4" t="n">
-        <v>18586.8947874542</v>
+        <v>18586.89478745419</v>
       </c>
       <c r="H4" t="n">
-        <v>18586.8947874542</v>
+        <v>18586.89478745419</v>
       </c>
       <c r="I4" t="n">
-        <v>49130.88892893014</v>
+        <v>49130.88892893017</v>
       </c>
       <c r="J4" t="n">
-        <v>49130.88892893016</v>
+        <v>49130.88892893019</v>
       </c>
       <c r="K4" t="n">
-        <v>49130.88892893013</v>
+        <v>49130.88892893019</v>
       </c>
       <c r="L4" t="n">
-        <v>49130.88892893016</v>
+        <v>49130.8889289302</v>
       </c>
       <c r="M4" t="n">
         <v>18586.89478745419</v>
       </c>
       <c r="N4" t="n">
-        <v>18586.8947874542</v>
+        <v>18586.89478745419</v>
       </c>
       <c r="O4" t="n">
-        <v>18586.8947874542</v>
+        <v>18586.89478745419</v>
       </c>
       <c r="P4" t="n">
-        <v>18586.89478745421</v>
+        <v>18586.89478745419</v>
       </c>
     </row>
     <row r="5">
@@ -26484,34 +26484,34 @@
         <v>46803.00533885189</v>
       </c>
       <c r="G5" t="n">
-        <v>46803.0053388519</v>
+        <v>46803.00533885189</v>
       </c>
       <c r="H5" t="n">
-        <v>46803.0053388519</v>
+        <v>46803.00533885189</v>
       </c>
       <c r="I5" t="n">
-        <v>55830.09678221408</v>
+        <v>55830.09678221407</v>
       </c>
       <c r="J5" t="n">
-        <v>55830.09678221408</v>
+        <v>55830.09678221407</v>
       </c>
       <c r="K5" t="n">
-        <v>55830.09678221408</v>
+        <v>55830.09678221407</v>
       </c>
       <c r="L5" t="n">
-        <v>55830.09678221408</v>
+        <v>55830.09678221407</v>
       </c>
       <c r="M5" t="n">
-        <v>46803.00533885192</v>
+        <v>46803.00533885189</v>
       </c>
       <c r="N5" t="n">
-        <v>46803.00533885192</v>
+        <v>46803.00533885189</v>
       </c>
       <c r="O5" t="n">
-        <v>46803.00533885192</v>
+        <v>46803.00533885189</v>
       </c>
       <c r="P5" t="n">
-        <v>46803.00533885192</v>
+        <v>46803.00533885189</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99434.00582224538</v>
+        <v>99402.0991047437</v>
       </c>
       <c r="C6" t="n">
-        <v>99434.00582224532</v>
+        <v>99402.09910474358</v>
       </c>
       <c r="D6" t="n">
-        <v>99434.00582224538</v>
+        <v>99402.0991047437</v>
       </c>
       <c r="E6" t="n">
-        <v>-362692.1956976484</v>
+        <v>-363236.1060099559</v>
       </c>
       <c r="F6" t="n">
-        <v>197441.2357217489</v>
+        <v>196897.3254094413</v>
       </c>
       <c r="G6" t="n">
-        <v>197441.2357217489</v>
+        <v>196897.3254094412</v>
       </c>
       <c r="H6" t="n">
-        <v>197441.2357217489</v>
+        <v>196897.3254094411</v>
       </c>
       <c r="I6" t="n">
-        <v>167635.2918255815</v>
+        <v>167240.6146571326</v>
       </c>
       <c r="J6" t="n">
-        <v>207117.0876102905</v>
+        <v>206722.4104418416</v>
       </c>
       <c r="K6" t="n">
-        <v>207117.0876102907</v>
+        <v>206722.4104418416</v>
       </c>
       <c r="L6" t="n">
-        <v>207117.0876102906</v>
+        <v>206722.4104418416</v>
       </c>
       <c r="M6" t="n">
-        <v>84989.11313254558</v>
+        <v>84445.20282023793</v>
       </c>
       <c r="N6" t="n">
-        <v>197441.2357217489</v>
+        <v>196897.3254094413</v>
       </c>
       <c r="O6" t="n">
-        <v>197441.2357217489</v>
+        <v>196897.3254094413</v>
       </c>
       <c r="P6" t="n">
-        <v>197441.2357217489</v>
+        <v>196897.3254094412</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>474.3212099228637</v>
+        <v>474.3212099228636</v>
       </c>
       <c r="F3" t="n">
         <v>474.3212099228637</v>
       </c>
       <c r="G3" t="n">
-        <v>474.3212099228637</v>
+        <v>474.3212099228636</v>
       </c>
       <c r="H3" t="n">
-        <v>474.3212099228638</v>
+        <v>474.3212099228635</v>
       </c>
       <c r="I3" t="n">
-        <v>474.3212099228638</v>
+        <v>474.3212099228635</v>
       </c>
       <c r="J3" t="n">
-        <v>474.3212099228638</v>
+        <v>474.3212099228635</v>
       </c>
       <c r="K3" t="n">
-        <v>474.3212099228638</v>
+        <v>474.3212099228635</v>
       </c>
       <c r="L3" t="n">
-        <v>474.3212099228638</v>
+        <v>474.3212099228635</v>
       </c>
       <c r="M3" t="n">
-        <v>474.3212099228638</v>
+        <v>474.3212099228636</v>
       </c>
       <c r="N3" t="n">
-        <v>474.3212099228638</v>
+        <v>474.3212099228636</v>
       </c>
       <c r="O3" t="n">
-        <v>474.3212099228638</v>
+        <v>474.3212099228636</v>
       </c>
       <c r="P3" t="n">
-        <v>474.3212099228638</v>
+        <v>474.3212099228636</v>
       </c>
     </row>
     <row r="4">
@@ -26801,37 +26801,37 @@
         <v>599.7171539890373</v>
       </c>
       <c r="F4" t="n">
+        <v>599.7171539890373</v>
+      </c>
+      <c r="G4" t="n">
+        <v>599.7171539890373</v>
+      </c>
+      <c r="H4" t="n">
         <v>599.7171539890372</v>
       </c>
-      <c r="G4" t="n">
-        <v>599.7171539890375</v>
-      </c>
-      <c r="H4" t="n">
-        <v>599.7171539890375</v>
-      </c>
       <c r="I4" t="n">
-        <v>748.189052728547</v>
+        <v>748.1890527285468</v>
       </c>
       <c r="J4" t="n">
-        <v>748.189052728547</v>
+        <v>748.1890527285469</v>
       </c>
       <c r="K4" t="n">
-        <v>748.189052728547</v>
+        <v>748.1890527285469</v>
       </c>
       <c r="L4" t="n">
-        <v>748.189052728547</v>
+        <v>748.1890527285469</v>
       </c>
       <c r="M4" t="n">
-        <v>599.7171539890376</v>
+        <v>599.7171539890373</v>
       </c>
       <c r="N4" t="n">
-        <v>599.7171539890376</v>
+        <v>599.7171539890373</v>
       </c>
       <c r="O4" t="n">
-        <v>599.7171539890376</v>
+        <v>599.7171539890373</v>
       </c>
       <c r="P4" t="n">
-        <v>599.7171539890377</v>
+        <v>599.7171539890373</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>474.3212099228637</v>
+        <v>474.3212099228636</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>599.7171539890372</v>
+        <v>599.7171539890373</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>451.245255249528</v>
+        <v>451.2452552495278</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>599.7171539890372</v>
+        <v>599.7171539890373</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.90681893436327</v>
+        <v>1.906818934363269</v>
       </c>
       <c r="H11" t="n">
         <v>19.52820941154784</v>
       </c>
       <c r="I11" t="n">
-        <v>73.51263696704002</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J11" t="n">
         <v>161.8388735304147</v>
@@ -31773,7 +31773,7 @@
         <v>334.8207202085147</v>
       </c>
       <c r="N11" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O11" t="n">
         <v>321.2775387271996</v>
@@ -31788,10 +31788,10 @@
         <v>119.7792148856968</v>
       </c>
       <c r="S11" t="n">
-        <v>43.45163646680305</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T11" t="n">
-        <v>8.347099885175217</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U11" t="n">
         <v>0.1525455147490615</v>
@@ -31834,13 +31834,13 @@
         <v>1.020238074173707</v>
       </c>
       <c r="H12" t="n">
-        <v>9.85335192688817</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I12" t="n">
-        <v>35.12661790466491</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J12" t="n">
-        <v>96.39012436743781</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K12" t="n">
         <v>164.7460753370761</v>
@@ -31849,28 +31849,28 @@
         <v>221.5214292191638</v>
       </c>
       <c r="M12" t="n">
-        <v>258.5050594079607</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N12" t="n">
-        <v>265.3469191246783</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O12" t="n">
         <v>242.7405912706187</v>
       </c>
       <c r="P12" t="n">
-        <v>167.3927270171068</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.2324952225946</v>
+        <v>102.8044973564786</v>
       </c>
       <c r="R12" t="n">
-        <v>63.34425516667982</v>
+        <v>63.34425516667981</v>
       </c>
       <c r="S12" t="n">
         <v>18.95047475493704</v>
       </c>
       <c r="T12" t="n">
-        <v>4.112275395463317</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U12" t="n">
         <v>0.06712092593248073</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8553333293690983</v>
+        <v>0.8553333293690982</v>
       </c>
       <c r="H13" t="n">
-        <v>7.604690873845262</v>
+        <v>7.604690873845261</v>
       </c>
       <c r="I13" t="n">
         <v>25.72220594139071</v>
       </c>
       <c r="J13" t="n">
-        <v>60.47206638639525</v>
+        <v>60.47206638639524</v>
       </c>
       <c r="K13" t="n">
         <v>99.37418135760976</v>
@@ -31949,10 +31949,10 @@
         <v>14.90612720364146</v>
       </c>
       <c r="T13" t="n">
-        <v>3.654606043667965</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04665454523831451</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32086,7 +32086,7 @@
         <v>221.5214292191638</v>
       </c>
       <c r="M15" t="n">
-        <v>258.5050594079607</v>
+        <v>231.0770615418445</v>
       </c>
       <c r="N15" t="n">
         <v>265.3469191246783</v>
@@ -32095,7 +32095,7 @@
         <v>242.7405912706187</v>
       </c>
       <c r="P15" t="n">
-        <v>167.3927270171075</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q15" t="n">
         <v>130.2324952225946</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.90681893436327</v>
+        <v>1.906818934363269</v>
       </c>
       <c r="H17" t="n">
         <v>19.52820941154784</v>
       </c>
       <c r="I17" t="n">
-        <v>73.51263696704002</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J17" t="n">
         <v>161.8388735304147</v>
@@ -32247,7 +32247,7 @@
         <v>334.8207202085147</v>
       </c>
       <c r="N17" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O17" t="n">
         <v>321.2775387271996</v>
@@ -32262,10 +32262,10 @@
         <v>119.7792148856968</v>
       </c>
       <c r="S17" t="n">
-        <v>43.45163646680305</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T17" t="n">
-        <v>8.347099885175217</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U17" t="n">
         <v>0.1525455147490615</v>
@@ -32308,13 +32308,13 @@
         <v>1.020238074173707</v>
       </c>
       <c r="H18" t="n">
-        <v>9.85335192688817</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I18" t="n">
-        <v>35.12661790466491</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J18" t="n">
-        <v>96.39012436743781</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K18" t="n">
         <v>164.7460753370761</v>
@@ -32323,10 +32323,10 @@
         <v>221.5214292191638</v>
       </c>
       <c r="M18" t="n">
-        <v>231.0770615418445</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N18" t="n">
-        <v>265.3469191246783</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O18" t="n">
         <v>242.7405912706187</v>
@@ -32335,16 +32335,16 @@
         <v>194.820724883223</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.2324952225946</v>
+        <v>102.8044973564786</v>
       </c>
       <c r="R18" t="n">
-        <v>63.34425516667982</v>
+        <v>63.34425516667981</v>
       </c>
       <c r="S18" t="n">
         <v>18.95047475493704</v>
       </c>
       <c r="T18" t="n">
-        <v>4.112275395463317</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U18" t="n">
         <v>0.06712092593248073</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8553333293690983</v>
+        <v>0.8553333293690982</v>
       </c>
       <c r="H19" t="n">
-        <v>7.604690873845262</v>
+        <v>7.604690873845261</v>
       </c>
       <c r="I19" t="n">
         <v>25.72220594139071</v>
       </c>
       <c r="J19" t="n">
-        <v>60.47206638639525</v>
+        <v>60.47206638639524</v>
       </c>
       <c r="K19" t="n">
         <v>99.37418135760976</v>
@@ -32423,10 +32423,10 @@
         <v>14.90612720364146</v>
       </c>
       <c r="T19" t="n">
-        <v>3.654606043667965</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04665454523831451</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.90681893436327</v>
+        <v>1.906818934363269</v>
       </c>
       <c r="H20" t="n">
-        <v>19.52820941154785</v>
+        <v>19.52820941154783</v>
       </c>
       <c r="I20" t="n">
-        <v>73.51263696704004</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J20" t="n">
-        <v>161.8388735304147</v>
+        <v>161.8388735304146</v>
       </c>
       <c r="K20" t="n">
-        <v>242.554519022012</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L20" t="n">
-        <v>300.910328984532</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M20" t="n">
-        <v>334.8207202085148</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N20" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O20" t="n">
-        <v>321.2775387271997</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P20" t="n">
-        <v>274.2029462851064</v>
+        <v>274.2029462851062</v>
       </c>
       <c r="Q20" t="n">
-        <v>205.9149931982217</v>
+        <v>205.9149931982216</v>
       </c>
       <c r="R20" t="n">
-        <v>119.7792148856969</v>
+        <v>119.7792148856968</v>
       </c>
       <c r="S20" t="n">
-        <v>43.45163646680306</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T20" t="n">
-        <v>8.347099885175219</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1525455147490616</v>
+        <v>0.1525455147490615</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.020238074173707</v>
+        <v>1.020238074173706</v>
       </c>
       <c r="H21" t="n">
-        <v>9.853351926888172</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I21" t="n">
-        <v>35.12661790466492</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J21" t="n">
-        <v>68.96212650132097</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K21" t="n">
-        <v>164.7460753370762</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L21" t="n">
-        <v>221.5214292191639</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M21" t="n">
-        <v>258.5050594079607</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N21" t="n">
-        <v>265.3469191246783</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O21" t="n">
-        <v>242.7405912706188</v>
+        <v>215.3125934045031</v>
       </c>
       <c r="P21" t="n">
-        <v>194.8207248832231</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.2324952225946</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R21" t="n">
-        <v>63.34425516667984</v>
+        <v>63.3442551666798</v>
       </c>
       <c r="S21" t="n">
         <v>18.95047475493704</v>
       </c>
       <c r="T21" t="n">
-        <v>4.112275395463318</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06712092593248076</v>
+        <v>0.06712092593248072</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8553333293690984</v>
+        <v>0.8553333293690981</v>
       </c>
       <c r="H22" t="n">
-        <v>7.604690873845263</v>
+        <v>7.60469087384526</v>
       </c>
       <c r="I22" t="n">
-        <v>25.72220594139072</v>
+        <v>25.7222059413907</v>
       </c>
       <c r="J22" t="n">
-        <v>60.47206638639526</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K22" t="n">
-        <v>99.37418135760979</v>
+        <v>99.37418135760974</v>
       </c>
       <c r="L22" t="n">
         <v>127.1647388045658</v>
@@ -32645,25 +32645,25 @@
         <v>130.8893266660913</v>
       </c>
       <c r="O22" t="n">
-        <v>120.8974782275523</v>
+        <v>120.8974782275522</v>
       </c>
       <c r="P22" t="n">
-        <v>103.4486783084226</v>
+        <v>103.4486783084225</v>
       </c>
       <c r="Q22" t="n">
-        <v>71.62250269835243</v>
+        <v>71.62250269835239</v>
       </c>
       <c r="R22" t="n">
-        <v>38.45889679145055</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S22" t="n">
-        <v>14.90612720364147</v>
+        <v>14.90612720364146</v>
       </c>
       <c r="T22" t="n">
-        <v>3.654606043667965</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04665454523831452</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.90681893436327</v>
+        <v>1.906818934363269</v>
       </c>
       <c r="H23" t="n">
-        <v>19.52820941154785</v>
+        <v>19.52820941154783</v>
       </c>
       <c r="I23" t="n">
-        <v>73.51263696704004</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J23" t="n">
-        <v>161.8388735304147</v>
+        <v>161.8388735304146</v>
       </c>
       <c r="K23" t="n">
-        <v>242.554519022012</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L23" t="n">
-        <v>300.910328984532</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M23" t="n">
-        <v>334.8207202085148</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N23" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O23" t="n">
-        <v>321.2775387271997</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P23" t="n">
-        <v>274.2029462851064</v>
+        <v>274.2029462851062</v>
       </c>
       <c r="Q23" t="n">
-        <v>205.9149931982217</v>
+        <v>205.9149931982216</v>
       </c>
       <c r="R23" t="n">
-        <v>119.7792148856969</v>
+        <v>119.7792148856968</v>
       </c>
       <c r="S23" t="n">
-        <v>43.45163646680306</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T23" t="n">
-        <v>8.347099885175219</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1525455147490616</v>
+        <v>0.1525455147490615</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.020238074173707</v>
+        <v>1.020238074173706</v>
       </c>
       <c r="H24" t="n">
-        <v>9.853351926888172</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I24" t="n">
-        <v>7.698620038548498</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J24" t="n">
-        <v>96.39012436743783</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K24" t="n">
-        <v>164.7460753370762</v>
+        <v>137.3180774709606</v>
       </c>
       <c r="L24" t="n">
-        <v>221.5214292191639</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M24" t="n">
-        <v>258.5050594079607</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N24" t="n">
-        <v>265.3469191246783</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O24" t="n">
-        <v>242.7405912706188</v>
+        <v>242.7405912706187</v>
       </c>
       <c r="P24" t="n">
-        <v>194.8207248832231</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.2324952225946</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R24" t="n">
-        <v>63.34425516667984</v>
+        <v>63.3442551666798</v>
       </c>
       <c r="S24" t="n">
         <v>18.95047475493704</v>
       </c>
       <c r="T24" t="n">
-        <v>4.112275395463318</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06712092593248076</v>
+        <v>0.06712092593248072</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8553333293690984</v>
+        <v>0.8553333293690981</v>
       </c>
       <c r="H25" t="n">
-        <v>7.604690873845263</v>
+        <v>7.60469087384526</v>
       </c>
       <c r="I25" t="n">
-        <v>25.72220594139072</v>
+        <v>25.7222059413907</v>
       </c>
       <c r="J25" t="n">
-        <v>60.47206638639526</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K25" t="n">
-        <v>99.37418135760979</v>
+        <v>99.37418135760974</v>
       </c>
       <c r="L25" t="n">
         <v>127.1647388045658</v>
@@ -32882,25 +32882,25 @@
         <v>130.8893266660913</v>
       </c>
       <c r="O25" t="n">
-        <v>120.8974782275523</v>
+        <v>120.8974782275522</v>
       </c>
       <c r="P25" t="n">
-        <v>103.4486783084226</v>
+        <v>103.4486783084225</v>
       </c>
       <c r="Q25" t="n">
-        <v>71.62250269835243</v>
+        <v>71.62250269835239</v>
       </c>
       <c r="R25" t="n">
-        <v>38.45889679145055</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S25" t="n">
-        <v>14.90612720364147</v>
+        <v>14.90612720364146</v>
       </c>
       <c r="T25" t="n">
-        <v>3.654606043667965</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04665454523831452</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.90681893436327</v>
+        <v>1.906818934363269</v>
       </c>
       <c r="H26" t="n">
-        <v>19.52820941154785</v>
+        <v>19.52820941154783</v>
       </c>
       <c r="I26" t="n">
-        <v>73.51263696704004</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J26" t="n">
-        <v>161.8388735304147</v>
+        <v>161.8388735304146</v>
       </c>
       <c r="K26" t="n">
-        <v>242.554519022012</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L26" t="n">
-        <v>300.910328984532</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M26" t="n">
-        <v>334.8207202085148</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N26" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O26" t="n">
-        <v>321.2775387271997</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P26" t="n">
-        <v>274.2029462851064</v>
+        <v>274.2029462851062</v>
       </c>
       <c r="Q26" t="n">
-        <v>205.9149931982217</v>
+        <v>205.9149931982216</v>
       </c>
       <c r="R26" t="n">
-        <v>119.7792148856969</v>
+        <v>119.7792148856968</v>
       </c>
       <c r="S26" t="n">
-        <v>43.45163646680306</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T26" t="n">
-        <v>8.347099885175219</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1525455147490616</v>
+        <v>0.1525455147490615</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.020238074173707</v>
+        <v>1.020238074173706</v>
       </c>
       <c r="H27" t="n">
-        <v>9.853351926888172</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I27" t="n">
-        <v>35.12661790466492</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J27" t="n">
-        <v>96.39012436743783</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K27" t="n">
-        <v>164.7460753370762</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L27" t="n">
-        <v>194.0934313530475</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M27" t="n">
-        <v>258.5050594079607</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N27" t="n">
-        <v>265.3469191246783</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O27" t="n">
-        <v>242.7405912706188</v>
+        <v>215.3125934045033</v>
       </c>
       <c r="P27" t="n">
-        <v>194.8207248832231</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.2324952225946</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R27" t="n">
-        <v>63.34425516667984</v>
+        <v>63.3442551666798</v>
       </c>
       <c r="S27" t="n">
         <v>18.95047475493704</v>
       </c>
       <c r="T27" t="n">
-        <v>4.112275395463318</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06712092593248076</v>
+        <v>0.06712092593248072</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8553333293690984</v>
+        <v>0.8553333293690981</v>
       </c>
       <c r="H28" t="n">
-        <v>7.604690873845263</v>
+        <v>7.60469087384526</v>
       </c>
       <c r="I28" t="n">
-        <v>25.72220594139072</v>
+        <v>25.7222059413907</v>
       </c>
       <c r="J28" t="n">
-        <v>60.47206638639526</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K28" t="n">
-        <v>99.37418135760979</v>
+        <v>99.37418135760974</v>
       </c>
       <c r="L28" t="n">
         <v>127.1647388045658</v>
@@ -33119,25 +33119,25 @@
         <v>130.8893266660913</v>
       </c>
       <c r="O28" t="n">
-        <v>120.8974782275523</v>
+        <v>120.8974782275522</v>
       </c>
       <c r="P28" t="n">
-        <v>103.4486783084226</v>
+        <v>103.4486783084225</v>
       </c>
       <c r="Q28" t="n">
-        <v>71.62250269835243</v>
+        <v>71.62250269835239</v>
       </c>
       <c r="R28" t="n">
-        <v>38.45889679145055</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S28" t="n">
-        <v>14.90612720364147</v>
+        <v>14.90612720364146</v>
       </c>
       <c r="T28" t="n">
-        <v>3.654606043667965</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04665454523831452</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.90681893436327</v>
+        <v>1.906818934363269</v>
       </c>
       <c r="H29" t="n">
-        <v>19.52820941154785</v>
+        <v>19.52820941154783</v>
       </c>
       <c r="I29" t="n">
-        <v>73.51263696704004</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J29" t="n">
-        <v>161.8388735304147</v>
+        <v>161.8388735304146</v>
       </c>
       <c r="K29" t="n">
-        <v>242.554519022012</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L29" t="n">
-        <v>300.910328984532</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M29" t="n">
-        <v>334.8207202085148</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N29" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O29" t="n">
-        <v>321.2775387271997</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P29" t="n">
-        <v>274.2029462851064</v>
+        <v>274.2029462851062</v>
       </c>
       <c r="Q29" t="n">
-        <v>205.9149931982217</v>
+        <v>205.9149931982216</v>
       </c>
       <c r="R29" t="n">
-        <v>119.7792148856969</v>
+        <v>119.7792148856968</v>
       </c>
       <c r="S29" t="n">
-        <v>43.45163646680306</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T29" t="n">
-        <v>8.347099885175219</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1525455147490616</v>
+        <v>0.1525455147490615</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.020238074173707</v>
+        <v>1.020238074173706</v>
       </c>
       <c r="H30" t="n">
-        <v>9.853351926888172</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I30" t="n">
-        <v>35.12661790466492</v>
+        <v>7.698620038549429</v>
       </c>
       <c r="J30" t="n">
-        <v>68.96212650132142</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K30" t="n">
-        <v>164.7460753370762</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L30" t="n">
-        <v>221.5214292191639</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M30" t="n">
-        <v>258.5050594079607</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N30" t="n">
-        <v>265.3469191246783</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O30" t="n">
-        <v>242.7405912706188</v>
+        <v>242.7405912706187</v>
       </c>
       <c r="P30" t="n">
-        <v>194.8207248832231</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.2324952225946</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R30" t="n">
-        <v>63.34425516667984</v>
+        <v>63.3442551666798</v>
       </c>
       <c r="S30" t="n">
         <v>18.95047475493704</v>
       </c>
       <c r="T30" t="n">
-        <v>4.112275395463318</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06712092593248076</v>
+        <v>0.06712092593248072</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8553333293690984</v>
+        <v>0.8553333293690981</v>
       </c>
       <c r="H31" t="n">
-        <v>7.604690873845263</v>
+        <v>7.60469087384526</v>
       </c>
       <c r="I31" t="n">
-        <v>25.72220594139072</v>
+        <v>25.7222059413907</v>
       </c>
       <c r="J31" t="n">
-        <v>60.47206638639526</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K31" t="n">
-        <v>99.37418135760979</v>
+        <v>99.37418135760974</v>
       </c>
       <c r="L31" t="n">
         <v>127.1647388045658</v>
@@ -33356,25 +33356,25 @@
         <v>130.8893266660913</v>
       </c>
       <c r="O31" t="n">
-        <v>120.8974782275523</v>
+        <v>120.8974782275522</v>
       </c>
       <c r="P31" t="n">
-        <v>103.4486783084226</v>
+        <v>103.4486783084225</v>
       </c>
       <c r="Q31" t="n">
-        <v>71.62250269835243</v>
+        <v>71.62250269835239</v>
       </c>
       <c r="R31" t="n">
-        <v>38.45889679145055</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S31" t="n">
-        <v>14.90612720364147</v>
+        <v>14.90612720364146</v>
       </c>
       <c r="T31" t="n">
-        <v>3.654606043667965</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04665454523831452</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.90681893436327</v>
+        <v>1.906818934363269</v>
       </c>
       <c r="H32" t="n">
-        <v>19.52820941154785</v>
+        <v>19.52820941154783</v>
       </c>
       <c r="I32" t="n">
-        <v>73.51263696704004</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J32" t="n">
-        <v>161.8388735304147</v>
+        <v>161.8388735304146</v>
       </c>
       <c r="K32" t="n">
-        <v>242.554519022012</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L32" t="n">
-        <v>300.910328984532</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M32" t="n">
-        <v>334.8207202085148</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N32" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O32" t="n">
-        <v>321.2775387271997</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P32" t="n">
-        <v>274.2029462851064</v>
+        <v>274.2029462851062</v>
       </c>
       <c r="Q32" t="n">
-        <v>205.9149931982217</v>
+        <v>205.9149931982216</v>
       </c>
       <c r="R32" t="n">
-        <v>119.7792148856969</v>
+        <v>119.7792148856968</v>
       </c>
       <c r="S32" t="n">
-        <v>43.45163646680306</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T32" t="n">
-        <v>8.347099885175219</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1525455147490616</v>
+        <v>0.1525455147490615</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.020238074173707</v>
+        <v>1.020238074173706</v>
       </c>
       <c r="H33" t="n">
-        <v>9.853351926888172</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I33" t="n">
-        <v>7.698620038548498</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J33" t="n">
-        <v>96.39012436743783</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K33" t="n">
-        <v>164.7460753370762</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L33" t="n">
-        <v>221.5214292191639</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M33" t="n">
-        <v>258.5050594079607</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N33" t="n">
-        <v>265.3469191246783</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O33" t="n">
-        <v>242.7405912706188</v>
+        <v>242.7405912706187</v>
       </c>
       <c r="P33" t="n">
-        <v>194.8207248832231</v>
+        <v>167.3927270171075</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.2324952225946</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R33" t="n">
-        <v>63.34425516667984</v>
+        <v>63.3442551666798</v>
       </c>
       <c r="S33" t="n">
         <v>18.95047475493704</v>
       </c>
       <c r="T33" t="n">
-        <v>4.112275395463318</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06712092593248076</v>
+        <v>0.06712092593248072</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8553333293690984</v>
+        <v>0.8553333293690981</v>
       </c>
       <c r="H34" t="n">
-        <v>7.604690873845263</v>
+        <v>7.60469087384526</v>
       </c>
       <c r="I34" t="n">
-        <v>25.72220594139072</v>
+        <v>25.7222059413907</v>
       </c>
       <c r="J34" t="n">
-        <v>60.47206638639526</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K34" t="n">
-        <v>99.37418135760979</v>
+        <v>99.37418135760974</v>
       </c>
       <c r="L34" t="n">
         <v>127.1647388045658</v>
@@ -33593,25 +33593,25 @@
         <v>130.8893266660913</v>
       </c>
       <c r="O34" t="n">
-        <v>120.8974782275523</v>
+        <v>120.8974782275522</v>
       </c>
       <c r="P34" t="n">
-        <v>103.4486783084226</v>
+        <v>103.4486783084225</v>
       </c>
       <c r="Q34" t="n">
-        <v>71.62250269835243</v>
+        <v>71.62250269835239</v>
       </c>
       <c r="R34" t="n">
-        <v>38.45889679145055</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S34" t="n">
-        <v>14.90612720364147</v>
+        <v>14.90612720364146</v>
       </c>
       <c r="T34" t="n">
-        <v>3.654606043667965</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04665454523831452</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.90681893436327</v>
+        <v>1.906818934363269</v>
       </c>
       <c r="H35" t="n">
-        <v>19.52820941154785</v>
+        <v>19.52820941154784</v>
       </c>
       <c r="I35" t="n">
-        <v>73.51263696704004</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J35" t="n">
         <v>161.8388735304147</v>
       </c>
       <c r="K35" t="n">
-        <v>242.554519022012</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L35" t="n">
-        <v>300.910328984532</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M35" t="n">
-        <v>334.8207202085148</v>
+        <v>334.8207202085147</v>
       </c>
       <c r="N35" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O35" t="n">
-        <v>321.2775387271997</v>
+        <v>321.2775387271996</v>
       </c>
       <c r="P35" t="n">
-        <v>274.2029462851064</v>
+        <v>274.2029462851063</v>
       </c>
       <c r="Q35" t="n">
         <v>205.9149931982217</v>
       </c>
       <c r="R35" t="n">
-        <v>119.7792148856969</v>
+        <v>119.7792148856968</v>
       </c>
       <c r="S35" t="n">
-        <v>43.45163646680306</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T35" t="n">
-        <v>8.347099885175219</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1525455147490616</v>
+        <v>0.1525455147490615</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,46 +33730,46 @@
         <v>1.020238074173707</v>
       </c>
       <c r="H36" t="n">
-        <v>9.853351926888172</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I36" t="n">
-        <v>35.12661790466492</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J36" t="n">
-        <v>96.39012436743783</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K36" t="n">
-        <v>164.7460753370762</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L36" t="n">
-        <v>221.5214292191639</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M36" t="n">
-        <v>258.5050594079607</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N36" t="n">
-        <v>237.9189212585616</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O36" t="n">
-        <v>242.7405912706188</v>
+        <v>242.7405912706187</v>
       </c>
       <c r="P36" t="n">
-        <v>194.8207248832231</v>
+        <v>167.3927270171071</v>
       </c>
       <c r="Q36" t="n">
         <v>130.2324952225946</v>
       </c>
       <c r="R36" t="n">
-        <v>63.34425516667984</v>
+        <v>63.34425516667981</v>
       </c>
       <c r="S36" t="n">
         <v>18.95047475493704</v>
       </c>
       <c r="T36" t="n">
-        <v>4.112275395463318</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06712092593248076</v>
+        <v>0.06712092593248073</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8553333293690984</v>
+        <v>0.8553333293690982</v>
       </c>
       <c r="H37" t="n">
-        <v>7.604690873845263</v>
+        <v>7.604690873845261</v>
       </c>
       <c r="I37" t="n">
-        <v>25.72220594139072</v>
+        <v>25.72220594139071</v>
       </c>
       <c r="J37" t="n">
-        <v>60.47206638639526</v>
+        <v>60.47206638639524</v>
       </c>
       <c r="K37" t="n">
-        <v>99.37418135760979</v>
+        <v>99.37418135760976</v>
       </c>
       <c r="L37" t="n">
         <v>127.1647388045658</v>
@@ -33830,25 +33830,25 @@
         <v>130.8893266660913</v>
       </c>
       <c r="O37" t="n">
-        <v>120.8974782275523</v>
+        <v>120.8974782275522</v>
       </c>
       <c r="P37" t="n">
-        <v>103.4486783084226</v>
+        <v>103.4486783084225</v>
       </c>
       <c r="Q37" t="n">
-        <v>71.62250269835243</v>
+        <v>71.62250269835241</v>
       </c>
       <c r="R37" t="n">
-        <v>38.45889679145055</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S37" t="n">
-        <v>14.90612720364147</v>
+        <v>14.90612720364146</v>
       </c>
       <c r="T37" t="n">
-        <v>3.654606043667965</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04665454523831452</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.90681893436327</v>
+        <v>1.906818934363269</v>
       </c>
       <c r="H38" t="n">
-        <v>19.52820941154785</v>
+        <v>19.52820941154784</v>
       </c>
       <c r="I38" t="n">
-        <v>73.51263696704004</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J38" t="n">
         <v>161.8388735304147</v>
       </c>
       <c r="K38" t="n">
-        <v>242.554519022012</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L38" t="n">
-        <v>300.910328984532</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M38" t="n">
-        <v>334.8207202085148</v>
+        <v>334.8207202085147</v>
       </c>
       <c r="N38" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O38" t="n">
-        <v>321.2775387271997</v>
+        <v>321.2775387271996</v>
       </c>
       <c r="P38" t="n">
-        <v>274.2029462851064</v>
+        <v>274.2029462851063</v>
       </c>
       <c r="Q38" t="n">
         <v>205.9149931982217</v>
       </c>
       <c r="R38" t="n">
-        <v>119.7792148856969</v>
+        <v>119.7792148856968</v>
       </c>
       <c r="S38" t="n">
-        <v>43.45163646680306</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T38" t="n">
-        <v>8.347099885175219</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1525455147490616</v>
+        <v>0.1525455147490615</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>1.020238074173707</v>
       </c>
       <c r="H39" t="n">
-        <v>9.853351926888172</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I39" t="n">
-        <v>7.69862003854805</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J39" t="n">
-        <v>96.39012436743783</v>
+        <v>68.96212650132208</v>
       </c>
       <c r="K39" t="n">
-        <v>164.7460753370762</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L39" t="n">
-        <v>221.5214292191639</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M39" t="n">
-        <v>258.5050594079607</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N39" t="n">
-        <v>265.3469191246783</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O39" t="n">
-        <v>242.7405912706188</v>
+        <v>242.7405912706187</v>
       </c>
       <c r="P39" t="n">
-        <v>194.8207248832231</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q39" t="n">
         <v>130.2324952225946</v>
       </c>
       <c r="R39" t="n">
-        <v>63.34425516667984</v>
+        <v>63.34425516667981</v>
       </c>
       <c r="S39" t="n">
         <v>18.95047475493704</v>
       </c>
       <c r="T39" t="n">
-        <v>4.112275395463318</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06712092593248076</v>
+        <v>0.06712092593248073</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8553333293690984</v>
+        <v>0.8553333293690982</v>
       </c>
       <c r="H40" t="n">
-        <v>7.604690873845263</v>
+        <v>7.604690873845261</v>
       </c>
       <c r="I40" t="n">
-        <v>25.72220594139072</v>
+        <v>25.72220594139071</v>
       </c>
       <c r="J40" t="n">
-        <v>60.47206638639526</v>
+        <v>60.47206638639524</v>
       </c>
       <c r="K40" t="n">
-        <v>99.37418135760979</v>
+        <v>99.37418135760976</v>
       </c>
       <c r="L40" t="n">
         <v>127.1647388045658</v>
@@ -34067,25 +34067,25 @@
         <v>130.8893266660913</v>
       </c>
       <c r="O40" t="n">
-        <v>120.8974782275523</v>
+        <v>120.8974782275522</v>
       </c>
       <c r="P40" t="n">
-        <v>103.4486783084226</v>
+        <v>103.4486783084225</v>
       </c>
       <c r="Q40" t="n">
-        <v>71.62250269835243</v>
+        <v>71.62250269835241</v>
       </c>
       <c r="R40" t="n">
-        <v>38.45889679145055</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S40" t="n">
-        <v>14.90612720364147</v>
+        <v>14.90612720364146</v>
       </c>
       <c r="T40" t="n">
-        <v>3.654606043667965</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04665454523831452</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.90681893436327</v>
+        <v>1.906818934363269</v>
       </c>
       <c r="H41" t="n">
-        <v>19.52820941154785</v>
+        <v>19.52820941154784</v>
       </c>
       <c r="I41" t="n">
-        <v>73.51263696704004</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J41" t="n">
         <v>161.8388735304147</v>
       </c>
       <c r="K41" t="n">
-        <v>242.554519022012</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L41" t="n">
-        <v>300.910328984532</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M41" t="n">
-        <v>334.8207202085148</v>
+        <v>334.8207202085147</v>
       </c>
       <c r="N41" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057743</v>
       </c>
       <c r="O41" t="n">
-        <v>321.2775387271997</v>
+        <v>321.2775387271996</v>
       </c>
       <c r="P41" t="n">
-        <v>274.2029462851064</v>
+        <v>274.2029462851063</v>
       </c>
       <c r="Q41" t="n">
         <v>205.9149931982217</v>
       </c>
       <c r="R41" t="n">
-        <v>119.7792148856969</v>
+        <v>119.7792148856968</v>
       </c>
       <c r="S41" t="n">
-        <v>43.45163646680306</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T41" t="n">
-        <v>8.347099885175219</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1525455147490616</v>
+        <v>0.1525455147490615</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>1.020238074173707</v>
       </c>
       <c r="H42" t="n">
-        <v>9.853351926888172</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I42" t="n">
-        <v>35.12661790466492</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J42" t="n">
-        <v>68.96212650132097</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K42" t="n">
-        <v>164.7460753370762</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L42" t="n">
-        <v>221.5214292191639</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M42" t="n">
-        <v>258.5050594079607</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N42" t="n">
-        <v>265.3469191246783</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O42" t="n">
-        <v>242.7405912706188</v>
+        <v>242.7405912706187</v>
       </c>
       <c r="P42" t="n">
-        <v>194.8207248832231</v>
+        <v>167.3927270171071</v>
       </c>
       <c r="Q42" t="n">
         <v>130.2324952225946</v>
       </c>
       <c r="R42" t="n">
-        <v>63.34425516667984</v>
+        <v>63.34425516667981</v>
       </c>
       <c r="S42" t="n">
         <v>18.95047475493704</v>
       </c>
       <c r="T42" t="n">
-        <v>4.112275395463318</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06712092593248076</v>
+        <v>0.06712092593248073</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8553333293690984</v>
+        <v>0.8553333293690982</v>
       </c>
       <c r="H43" t="n">
-        <v>7.604690873845263</v>
+        <v>7.604690873845261</v>
       </c>
       <c r="I43" t="n">
-        <v>25.72220594139072</v>
+        <v>25.72220594139071</v>
       </c>
       <c r="J43" t="n">
-        <v>60.47206638639526</v>
+        <v>60.47206638639524</v>
       </c>
       <c r="K43" t="n">
-        <v>99.37418135760979</v>
+        <v>99.37418135760976</v>
       </c>
       <c r="L43" t="n">
         <v>127.1647388045658</v>
@@ -34304,25 +34304,25 @@
         <v>130.8893266660913</v>
       </c>
       <c r="O43" t="n">
-        <v>120.8974782275523</v>
+        <v>120.8974782275522</v>
       </c>
       <c r="P43" t="n">
-        <v>103.4486783084226</v>
+        <v>103.4486783084225</v>
       </c>
       <c r="Q43" t="n">
-        <v>71.62250269835243</v>
+        <v>71.62250269835241</v>
       </c>
       <c r="R43" t="n">
-        <v>38.45889679145055</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S43" t="n">
-        <v>14.90612720364147</v>
+        <v>14.90612720364146</v>
       </c>
       <c r="T43" t="n">
-        <v>3.654606043667965</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04665454523831452</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.90681893436327</v>
+        <v>1.906818934363269</v>
       </c>
       <c r="H44" t="n">
-        <v>19.52820941154785</v>
+        <v>19.52820941154784</v>
       </c>
       <c r="I44" t="n">
-        <v>73.51263696704005</v>
+        <v>73.51263696704001</v>
       </c>
       <c r="J44" t="n">
-        <v>161.8388735304148</v>
+        <v>161.8388735304147</v>
       </c>
       <c r="K44" t="n">
-        <v>242.554519022012</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L44" t="n">
-        <v>300.910328984532</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M44" t="n">
-        <v>334.8207202085148</v>
+        <v>334.8207202085147</v>
       </c>
       <c r="N44" t="n">
-        <v>340.2384695057745</v>
+        <v>340.2384695057742</v>
       </c>
       <c r="O44" t="n">
-        <v>321.2775387271997</v>
+        <v>321.2775387271996</v>
       </c>
       <c r="P44" t="n">
-        <v>274.2029462851064</v>
+        <v>274.2029462851063</v>
       </c>
       <c r="Q44" t="n">
         <v>205.9149931982217</v>
       </c>
       <c r="R44" t="n">
-        <v>119.7792148856969</v>
+        <v>119.7792148856968</v>
       </c>
       <c r="S44" t="n">
-        <v>43.45163646680307</v>
+        <v>43.45163646680304</v>
       </c>
       <c r="T44" t="n">
-        <v>8.34709988517522</v>
+        <v>8.347099885175215</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1525455147490616</v>
+        <v>0.1525455147490615</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>1.020238074173707</v>
       </c>
       <c r="H45" t="n">
-        <v>9.853351926888173</v>
+        <v>9.853351926888168</v>
       </c>
       <c r="I45" t="n">
-        <v>35.12661790466492</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J45" t="n">
-        <v>96.39012436743785</v>
+        <v>68.96212650132208</v>
       </c>
       <c r="K45" t="n">
-        <v>164.7460753370762</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L45" t="n">
-        <v>221.5214292191639</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M45" t="n">
-        <v>258.5050594079607</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N45" t="n">
-        <v>265.3469191246783</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O45" t="n">
-        <v>215.312593404502</v>
+        <v>242.7405912706187</v>
       </c>
       <c r="P45" t="n">
-        <v>194.8207248832231</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q45" t="n">
         <v>130.2324952225946</v>
       </c>
       <c r="R45" t="n">
-        <v>63.34425516667984</v>
+        <v>63.34425516667981</v>
       </c>
       <c r="S45" t="n">
-        <v>18.95047475493705</v>
+        <v>18.95047475493704</v>
       </c>
       <c r="T45" t="n">
-        <v>4.112275395463318</v>
+        <v>4.112275395463316</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06712092593248076</v>
+        <v>0.06712092593248073</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8553333293690986</v>
+        <v>0.8553333293690982</v>
       </c>
       <c r="H46" t="n">
-        <v>7.604690873845264</v>
+        <v>7.604690873845261</v>
       </c>
       <c r="I46" t="n">
-        <v>25.72220594139072</v>
+        <v>25.72220594139071</v>
       </c>
       <c r="J46" t="n">
-        <v>60.47206638639527</v>
+        <v>60.47206638639524</v>
       </c>
       <c r="K46" t="n">
-        <v>99.3741813576098</v>
+        <v>99.37418135760976</v>
       </c>
       <c r="L46" t="n">
         <v>127.1647388045658</v>
@@ -34541,25 +34541,25 @@
         <v>130.8893266660913</v>
       </c>
       <c r="O46" t="n">
-        <v>120.8974782275523</v>
+        <v>120.8974782275522</v>
       </c>
       <c r="P46" t="n">
-        <v>103.4486783084226</v>
+        <v>103.4486783084225</v>
       </c>
       <c r="Q46" t="n">
-        <v>71.62250269835243</v>
+        <v>71.62250269835241</v>
       </c>
       <c r="R46" t="n">
-        <v>38.45889679145055</v>
+        <v>38.45889679145053</v>
       </c>
       <c r="S46" t="n">
-        <v>14.90612720364147</v>
+        <v>14.90612720364146</v>
       </c>
       <c r="T46" t="n">
-        <v>3.654606043667966</v>
+        <v>3.654606043667964</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04665454523831453</v>
+        <v>0.0466545452383145</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,19 +35406,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>73.10001548790862</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J11" t="n">
-        <v>161.8388735304147</v>
+        <v>161.8388735304145</v>
       </c>
       <c r="K11" t="n">
-        <v>242.554519022012</v>
+        <v>242.5545190220118</v>
       </c>
       <c r="L11" t="n">
-        <v>300.910328984532</v>
+        <v>300.9103289845318</v>
       </c>
       <c r="M11" t="n">
-        <v>334.8207202085146</v>
+        <v>334.8207202085148</v>
       </c>
       <c r="N11" t="n">
         <v>340.2384695057744</v>
@@ -35427,7 +35427,7 @@
         <v>321.2775387271995</v>
       </c>
       <c r="P11" t="n">
-        <v>274.2029462851065</v>
+        <v>274.2029462851062</v>
       </c>
       <c r="Q11" t="n">
         <v>205.9149931982215</v>
@@ -35497,19 +35497,19 @@
         <v>221.5214292191638</v>
       </c>
       <c r="M12" t="n">
-        <v>258.5050594079607</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N12" t="n">
-        <v>265.3469191246782</v>
+        <v>265.3469191246783</v>
       </c>
       <c r="O12" t="n">
         <v>242.7405912706188</v>
       </c>
       <c r="P12" t="n">
-        <v>167.3927270171068</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.2324952225947</v>
+        <v>102.8044973564786</v>
       </c>
       <c r="R12" t="n">
         <v>63.34425516667989</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>60.47206638639525</v>
+        <v>147.9262938254759</v>
       </c>
       <c r="K13" t="n">
         <v>376.9079738537063</v>
       </c>
       <c r="L13" t="n">
-        <v>127.1647388045658</v>
+        <v>549.5989628126074</v>
       </c>
       <c r="M13" t="n">
-        <v>598.2025056219347</v>
+        <v>335.1823933347428</v>
       </c>
       <c r="N13" t="n">
-        <v>130.8893266660912</v>
+        <v>130.8893266660914</v>
       </c>
       <c r="O13" t="n">
-        <v>537.6575091696366</v>
+        <v>120.8974782275523</v>
       </c>
       <c r="P13" t="n">
         <v>454.4657429249294</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.62250269835249</v>
+        <v>241.5141944805064</v>
       </c>
       <c r="R13" t="n">
         <v>17.2552537097687</v>
@@ -35652,7 +35652,7 @@
         <v>242.554519022012</v>
       </c>
       <c r="L14" t="n">
-        <v>300.9103289845319</v>
+        <v>300.910328984532</v>
       </c>
       <c r="M14" t="n">
         <v>334.8207202085146</v>
@@ -35664,7 +35664,7 @@
         <v>321.2775387271995</v>
       </c>
       <c r="P14" t="n">
-        <v>274.2029462851062</v>
+        <v>274.2029462851065</v>
       </c>
       <c r="Q14" t="n">
         <v>205.9149931982215</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>35.12661790466495</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J15" t="n">
         <v>96.39012436743781</v>
@@ -35734,19 +35734,19 @@
         <v>221.5214292191638</v>
       </c>
       <c r="M15" t="n">
-        <v>258.5050594079607</v>
+        <v>231.0770615418445</v>
       </c>
       <c r="N15" t="n">
-        <v>265.3469191246784</v>
+        <v>265.3469191246783</v>
       </c>
       <c r="O15" t="n">
-        <v>242.7405912706186</v>
+        <v>242.7405912706188</v>
       </c>
       <c r="P15" t="n">
-        <v>167.3927270171075</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.2324952225945</v>
+        <v>130.2324952225947</v>
       </c>
       <c r="R15" t="n">
         <v>63.34425516667989</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>147.9262938254759</v>
+        <v>60.47206638639525</v>
       </c>
       <c r="K16" t="n">
-        <v>210.8882854138807</v>
+        <v>376.9079738537063</v>
       </c>
       <c r="L16" t="n">
-        <v>549.5989628126073</v>
+        <v>549.5989628126072</v>
       </c>
       <c r="M16" t="n">
-        <v>598.2025056219346</v>
+        <v>134.0773872573759</v>
       </c>
       <c r="N16" t="n">
-        <v>130.8893266660912</v>
+        <v>165.4319194133984</v>
       </c>
       <c r="O16" t="n">
-        <v>544.8058107788465</v>
+        <v>544.8058107788468</v>
       </c>
       <c r="P16" t="n">
-        <v>103.4486783084226</v>
+        <v>454.4657429249294</v>
       </c>
       <c r="Q16" t="n">
         <v>71.62250269835249</v>
@@ -35880,13 +35880,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>73.10001548790862</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J17" t="n">
         <v>161.8388735304147</v>
       </c>
       <c r="K17" t="n">
-        <v>242.5545190220121</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L17" t="n">
         <v>300.9103289845319</v>
@@ -35895,7 +35895,7 @@
         <v>334.8207202085147</v>
       </c>
       <c r="N17" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057742</v>
       </c>
       <c r="O17" t="n">
         <v>321.2775387271995</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>35.12661790466491</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J18" t="n">
-        <v>96.39012436743779</v>
+        <v>96.39012436743781</v>
       </c>
       <c r="K18" t="n">
         <v>164.7460753370761</v>
@@ -35971,7 +35971,7 @@
         <v>221.5214292191638</v>
       </c>
       <c r="M18" t="n">
-        <v>231.0770615418445</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N18" t="n">
         <v>265.3469191246783</v>
@@ -35983,7 +35983,7 @@
         <v>194.820724883223</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.2324952225947</v>
+        <v>102.8044973564786</v>
       </c>
       <c r="R18" t="n">
         <v>63.34425516667989</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>60.47206638639526</v>
+        <v>147.9262938254759</v>
       </c>
       <c r="K19" t="n">
-        <v>99.37418135760976</v>
+        <v>186.5964456263218</v>
       </c>
       <c r="L19" t="n">
         <v>127.1647388045658</v>
@@ -36053,13 +36053,13 @@
         <v>598.2025056219346</v>
       </c>
       <c r="N19" t="n">
-        <v>577.6153904616921</v>
+        <v>577.615390461692</v>
       </c>
       <c r="O19" t="n">
         <v>544.8058107788465</v>
       </c>
       <c r="P19" t="n">
-        <v>278.1251700162156</v>
+        <v>103.4486783084226</v>
       </c>
       <c r="Q19" t="n">
         <v>71.62250269835249</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>73.10001548790864</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J20" t="n">
-        <v>161.8388735304148</v>
+        <v>161.8388735304146</v>
       </c>
       <c r="K20" t="n">
-        <v>242.554519022012</v>
+        <v>242.5545190220118</v>
       </c>
       <c r="L20" t="n">
         <v>300.910328984532</v>
       </c>
       <c r="M20" t="n">
-        <v>334.8207202085148</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N20" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057742</v>
       </c>
       <c r="O20" t="n">
-        <v>321.2775387271995</v>
+        <v>321.2775387271997</v>
       </c>
       <c r="P20" t="n">
-        <v>274.2029462851065</v>
+        <v>274.202946285106</v>
       </c>
       <c r="Q20" t="n">
         <v>205.9149931982215</v>
       </c>
       <c r="R20" t="n">
-        <v>119.7792148856965</v>
+        <v>119.779214885697</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>35.12661790466493</v>
+        <v>35.12661790466489</v>
       </c>
       <c r="J21" t="n">
-        <v>68.96212650132097</v>
+        <v>96.39012436743778</v>
       </c>
       <c r="K21" t="n">
-        <v>164.7460753370762</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L21" t="n">
-        <v>221.5214292191639</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M21" t="n">
-        <v>258.5050594079609</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N21" t="n">
-        <v>265.3469191246784</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O21" t="n">
-        <v>242.7405912706188</v>
+        <v>215.3125934045031</v>
       </c>
       <c r="P21" t="n">
-        <v>194.8207248832232</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.2324952225947</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R21" t="n">
         <v>63.34425516667989</v>
@@ -36281,28 +36281,28 @@
         <v>147.9262938254759</v>
       </c>
       <c r="K22" t="n">
-        <v>376.9079738537064</v>
+        <v>376.9079738537063</v>
       </c>
       <c r="L22" t="n">
-        <v>549.5989628126073</v>
+        <v>127.1647388045658</v>
       </c>
       <c r="M22" t="n">
-        <v>134.0773872573761</v>
+        <v>134.0773872573759</v>
       </c>
       <c r="N22" t="n">
-        <v>130.8893266660914</v>
+        <v>577.615390461692</v>
       </c>
       <c r="O22" t="n">
-        <v>322.0024843049193</v>
+        <v>544.8058107788465</v>
       </c>
       <c r="P22" t="n">
-        <v>454.4657429249294</v>
+        <v>207.3705766634425</v>
       </c>
       <c r="Q22" t="n">
         <v>241.5141944805064</v>
       </c>
       <c r="R22" t="n">
-        <v>17.25525370976871</v>
+        <v>17.25525370976869</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>73.10001548790864</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J23" t="n">
-        <v>161.8388735304147</v>
+        <v>601.4900729778064</v>
       </c>
       <c r="K23" t="n">
-        <v>242.554519022012</v>
+        <v>242.5545190220118</v>
       </c>
       <c r="L23" t="n">
-        <v>300.910328984532</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M23" t="n">
-        <v>334.8207202085148</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N23" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057742</v>
       </c>
       <c r="O23" t="n">
-        <v>748.1890527285473</v>
+        <v>321.2775387271993</v>
       </c>
       <c r="P23" t="n">
-        <v>435.1801626462611</v>
+        <v>274.202946285106</v>
       </c>
       <c r="Q23" t="n">
         <v>205.9149931982215</v>
       </c>
       <c r="R23" t="n">
-        <v>119.779214885697</v>
+        <v>268.0167458008082</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.698620038548498</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J24" t="n">
-        <v>96.39012436743783</v>
+        <v>96.39012436743781</v>
       </c>
       <c r="K24" t="n">
-        <v>164.7460753370762</v>
+        <v>137.3180774709606</v>
       </c>
       <c r="L24" t="n">
-        <v>221.5214292191639</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M24" t="n">
-        <v>258.5050594079607</v>
+        <v>258.5050594079605</v>
       </c>
       <c r="N24" t="n">
-        <v>265.3469191246784</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O24" t="n">
         <v>242.7405912706188</v>
@@ -36457,7 +36457,7 @@
         <v>194.820724883223</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.2324952225947</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R24" t="n">
         <v>63.34425516667989</v>
@@ -36521,25 +36521,25 @@
         <v>376.9079738537064</v>
       </c>
       <c r="L25" t="n">
-        <v>354.85024915753</v>
+        <v>127.1647388045658</v>
       </c>
       <c r="M25" t="n">
-        <v>598.2025056219347</v>
+        <v>598.2025056219345</v>
       </c>
       <c r="N25" t="n">
-        <v>577.615390461692</v>
+        <v>577.6153904616917</v>
       </c>
       <c r="O25" t="n">
         <v>544.8058107788465</v>
       </c>
       <c r="P25" t="n">
-        <v>103.4486783084226</v>
+        <v>331.1341886613864</v>
       </c>
       <c r="Q25" t="n">
         <v>241.5141944805064</v>
       </c>
       <c r="R25" t="n">
-        <v>17.25525370976871</v>
+        <v>17.25525370976869</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>73.10001548790864</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J26" t="n">
-        <v>601.4900729778066</v>
+        <v>578.8649122231635</v>
       </c>
       <c r="K26" t="n">
-        <v>242.554519022012</v>
+        <v>242.5545190220118</v>
       </c>
       <c r="L26" t="n">
-        <v>300.9103289845319</v>
+        <v>300.9103289845318</v>
       </c>
       <c r="M26" t="n">
-        <v>334.8207202085148</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N26" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057742</v>
       </c>
       <c r="O26" t="n">
         <v>321.2775387271995</v>
       </c>
       <c r="P26" t="n">
-        <v>274.2029462851065</v>
+        <v>274.202946285106</v>
       </c>
       <c r="Q26" t="n">
         <v>205.9149931982215</v>
       </c>
       <c r="R26" t="n">
-        <v>268.0167458008077</v>
+        <v>290.6419065554514</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>35.12661790466491</v>
+        <v>35.12661790466489</v>
       </c>
       <c r="J27" t="n">
-        <v>96.39012436743783</v>
+        <v>96.39012436743781</v>
       </c>
       <c r="K27" t="n">
-        <v>164.7460753370762</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L27" t="n">
-        <v>194.0934313530475</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M27" t="n">
-        <v>258.5050594079607</v>
+        <v>258.5050594079605</v>
       </c>
       <c r="N27" t="n">
-        <v>265.3469191246784</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O27" t="n">
-        <v>242.7405912706188</v>
+        <v>215.3125934045033</v>
       </c>
       <c r="P27" t="n">
         <v>194.820724883223</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.2324952225947</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R27" t="n">
         <v>63.34425516667989</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.47206638639527</v>
+        <v>147.9262938254759</v>
       </c>
       <c r="K28" t="n">
-        <v>99.37418135760979</v>
+        <v>376.9079738537064</v>
       </c>
       <c r="L28" t="n">
-        <v>549.5989628126073</v>
+        <v>127.1647388045658</v>
       </c>
       <c r="M28" t="n">
-        <v>598.2025056219347</v>
+        <v>598.2025056219345</v>
       </c>
       <c r="N28" t="n">
-        <v>577.615390461692</v>
+        <v>577.6153904616917</v>
       </c>
       <c r="O28" t="n">
-        <v>544.8058107788468</v>
+        <v>544.8058107788465</v>
       </c>
       <c r="P28" t="n">
-        <v>443.5796763706762</v>
+        <v>331.1341886613868</v>
       </c>
       <c r="Q28" t="n">
-        <v>71.62250269835249</v>
+        <v>241.5141944805064</v>
       </c>
       <c r="R28" t="n">
-        <v>17.25525370976871</v>
+        <v>17.25525370976869</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,28 +36828,28 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>73.10001548790864</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J29" t="n">
-        <v>578.8649122231625</v>
+        <v>578.8649122231635</v>
       </c>
       <c r="K29" t="n">
-        <v>242.554519022012</v>
+        <v>242.5545190220118</v>
       </c>
       <c r="L29" t="n">
-        <v>300.910328984532</v>
+        <v>300.9103289845318</v>
       </c>
       <c r="M29" t="n">
-        <v>334.8207202085148</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N29" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057742</v>
       </c>
       <c r="O29" t="n">
-        <v>321.2775387271997</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P29" t="n">
-        <v>274.2029462851065</v>
+        <v>274.202946285106</v>
       </c>
       <c r="Q29" t="n">
         <v>205.9149931982215</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>35.12661790466491</v>
+        <v>7.698620038549429</v>
       </c>
       <c r="J30" t="n">
-        <v>68.96212650132142</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K30" t="n">
-        <v>164.7460753370762</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L30" t="n">
-        <v>221.5214292191639</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M30" t="n">
-        <v>258.5050594079607</v>
+        <v>258.5050594079605</v>
       </c>
       <c r="N30" t="n">
-        <v>265.3469191246784</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O30" t="n">
         <v>242.7405912706188</v>
@@ -36931,7 +36931,7 @@
         <v>194.820724883223</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.2324952225947</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R30" t="n">
         <v>63.34425516667989</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.47206638639527</v>
+        <v>147.9262938254759</v>
       </c>
       <c r="K31" t="n">
-        <v>99.37418135760979</v>
+        <v>376.9079738537064</v>
       </c>
       <c r="L31" t="n">
-        <v>368.8212044762003</v>
+        <v>127.1647388045658</v>
       </c>
       <c r="M31" t="n">
-        <v>598.2025056219347</v>
+        <v>598.2025056219345</v>
       </c>
       <c r="N31" t="n">
-        <v>577.615390461692</v>
+        <v>577.6153904616917</v>
       </c>
       <c r="O31" t="n">
         <v>544.8058107788465</v>
       </c>
       <c r="P31" t="n">
-        <v>454.4657429249296</v>
+        <v>331.1341886613868</v>
       </c>
       <c r="Q31" t="n">
         <v>241.5141944805064</v>
       </c>
       <c r="R31" t="n">
-        <v>17.25525370976871</v>
+        <v>17.25525370976869</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>73.10001548790864</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J32" t="n">
-        <v>161.8388735304147</v>
+        <v>601.4900729778064</v>
       </c>
       <c r="K32" t="n">
-        <v>242.554519022012</v>
+        <v>242.5545190220118</v>
       </c>
       <c r="L32" t="n">
-        <v>300.910328984532</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M32" t="n">
-        <v>334.8207202085148</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N32" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057742</v>
       </c>
       <c r="O32" t="n">
-        <v>321.2775387271997</v>
+        <v>321.2775387271993</v>
       </c>
       <c r="P32" t="n">
-        <v>274.2029462851062</v>
+        <v>274.202946285106</v>
       </c>
       <c r="Q32" t="n">
-        <v>748.1890527285468</v>
+        <v>205.9149931982215</v>
       </c>
       <c r="R32" t="n">
-        <v>165.3938857178741</v>
+        <v>268.0167458008086</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>7.698620038548498</v>
+        <v>35.12661790466489</v>
       </c>
       <c r="J33" t="n">
-        <v>96.39012436743783</v>
+        <v>96.39012436743781</v>
       </c>
       <c r="K33" t="n">
-        <v>164.7460753370762</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L33" t="n">
-        <v>221.5214292191639</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M33" t="n">
-        <v>258.5050594079607</v>
+        <v>258.5050594079605</v>
       </c>
       <c r="N33" t="n">
-        <v>265.3469191246784</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O33" t="n">
         <v>242.7405912706188</v>
       </c>
       <c r="P33" t="n">
-        <v>194.820724883223</v>
+        <v>167.3927270171075</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.2324952225947</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R33" t="n">
         <v>63.34425516667989</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.47206638639527</v>
+        <v>147.9262938254759</v>
       </c>
       <c r="K34" t="n">
-        <v>269.6134876377097</v>
+        <v>376.9079738537064</v>
       </c>
       <c r="L34" t="n">
-        <v>549.5989628126073</v>
+        <v>549.5989628126072</v>
       </c>
       <c r="M34" t="n">
-        <v>598.2025056219347</v>
+        <v>134.0773872573759</v>
       </c>
       <c r="N34" t="n">
-        <v>577.615390461692</v>
+        <v>495.9747305546666</v>
       </c>
       <c r="O34" t="n">
         <v>544.8058107788465</v>
       </c>
       <c r="P34" t="n">
-        <v>103.4486783084226</v>
+        <v>454.4657429249291</v>
       </c>
       <c r="Q34" t="n">
         <v>241.5141944805064</v>
       </c>
       <c r="R34" t="n">
-        <v>17.25525370976871</v>
+        <v>17.25525370976869</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,16 +37302,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>73.10001548790864</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J35" t="n">
-        <v>161.8388735304147</v>
+        <v>161.8388735304152</v>
       </c>
       <c r="K35" t="n">
         <v>242.5545190220118</v>
       </c>
       <c r="L35" t="n">
-        <v>300.910328984532</v>
+        <v>300.9103289845318</v>
       </c>
       <c r="M35" t="n">
         <v>334.8207202085148</v>
@@ -37320,7 +37320,7 @@
         <v>340.2384695057744</v>
       </c>
       <c r="O35" t="n">
-        <v>321.2775387271997</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P35" t="n">
         <v>274.2029462851065</v>
@@ -37329,7 +37329,7 @@
         <v>205.9149931982215</v>
       </c>
       <c r="R35" t="n">
-        <v>119.779214885697</v>
+        <v>119.7792148856965</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>35.12661790466492</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J36" t="n">
-        <v>96.39012436743783</v>
+        <v>96.39012436743781</v>
       </c>
       <c r="K36" t="n">
-        <v>164.7460753370762</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L36" t="n">
-        <v>221.521429219164</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M36" t="n">
-        <v>258.5050594079607</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N36" t="n">
-        <v>237.9189212585616</v>
+        <v>265.3469191246783</v>
       </c>
       <c r="O36" t="n">
         <v>242.7405912706188</v>
       </c>
       <c r="P36" t="n">
-        <v>194.8207248832232</v>
+        <v>167.3927270171071</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.2324952225947</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R36" t="n">
         <v>63.34425516667989</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>60.47206638639526</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K37" t="n">
-        <v>376.9079738537064</v>
+        <v>376.9079738537063</v>
       </c>
       <c r="L37" t="n">
-        <v>127.1647388045658</v>
+        <v>549.5989628126072</v>
       </c>
       <c r="M37" t="n">
-        <v>134.077387257376</v>
+        <v>134.0773872573759</v>
       </c>
       <c r="N37" t="n">
-        <v>577.615390461692</v>
+        <v>130.8893266660912</v>
       </c>
       <c r="O37" t="n">
-        <v>544.8058107788468</v>
+        <v>409.4567117440001</v>
       </c>
       <c r="P37" t="n">
-        <v>294.824804102524</v>
+        <v>454.4657429249294</v>
       </c>
       <c r="Q37" t="n">
         <v>241.5141944805064</v>
       </c>
       <c r="R37" t="n">
-        <v>17.25525370976871</v>
+        <v>17.2552537097687</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,28 +37539,28 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>73.10001548790864</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J38" t="n">
         <v>161.8388735304147</v>
       </c>
       <c r="K38" t="n">
-        <v>242.554519022012</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L38" t="n">
         <v>300.9103289845319</v>
       </c>
       <c r="M38" t="n">
-        <v>334.8207202085148</v>
+        <v>334.8207202085147</v>
       </c>
       <c r="N38" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057742</v>
       </c>
       <c r="O38" t="n">
-        <v>321.2775387271997</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P38" t="n">
-        <v>274.2029462851065</v>
+        <v>274.2029462851062</v>
       </c>
       <c r="Q38" t="n">
         <v>205.9149931982215</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.69862003854805</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J39" t="n">
-        <v>96.39012436743783</v>
+        <v>68.96212650132208</v>
       </c>
       <c r="K39" t="n">
-        <v>164.7460753370762</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L39" t="n">
-        <v>221.5214292191639</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M39" t="n">
-        <v>258.5050594079609</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N39" t="n">
-        <v>265.3469191246784</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O39" t="n">
         <v>242.7405912706188</v>
       </c>
       <c r="P39" t="n">
-        <v>194.8207248832232</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.2324952225947</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R39" t="n">
         <v>63.34425516667989</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>60.47206638639526</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K40" t="n">
-        <v>99.37418135760977</v>
+        <v>376.9079738537063</v>
       </c>
       <c r="L40" t="n">
-        <v>549.5989628126073</v>
+        <v>549.5989628126072</v>
       </c>
       <c r="M40" t="n">
-        <v>598.2025056219348</v>
+        <v>134.0773872573759</v>
       </c>
       <c r="N40" t="n">
-        <v>577.615390461692</v>
+        <v>130.8893266660912</v>
       </c>
       <c r="O40" t="n">
-        <v>297.0480784785984</v>
+        <v>409.4567117440001</v>
       </c>
       <c r="P40" t="n">
-        <v>103.4486783084226</v>
+        <v>454.4657429249294</v>
       </c>
       <c r="Q40" t="n">
-        <v>71.62250269835249</v>
+        <v>241.5141944805064</v>
       </c>
       <c r="R40" t="n">
-        <v>17.25525370976871</v>
+        <v>17.2552537097687</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>73.10001548790864</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J41" t="n">
         <v>161.8388735304147</v>
@@ -37785,7 +37785,7 @@
         <v>242.554519022012</v>
       </c>
       <c r="L41" t="n">
-        <v>300.910328984532</v>
+        <v>300.9103289845318</v>
       </c>
       <c r="M41" t="n">
         <v>334.8207202085148</v>
@@ -37800,7 +37800,7 @@
         <v>274.2029462851065</v>
       </c>
       <c r="Q41" t="n">
-        <v>205.9149931982215</v>
+        <v>205.9149931982211</v>
       </c>
       <c r="R41" t="n">
         <v>119.779214885697</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>35.12661790466492</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J42" t="n">
-        <v>68.96212650132097</v>
+        <v>96.39012436743781</v>
       </c>
       <c r="K42" t="n">
-        <v>164.7460753370762</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L42" t="n">
-        <v>221.5214292191639</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M42" t="n">
-        <v>258.5050594079609</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N42" t="n">
-        <v>265.3469191246784</v>
+        <v>265.3469191246783</v>
       </c>
       <c r="O42" t="n">
         <v>242.7405912706188</v>
       </c>
       <c r="P42" t="n">
-        <v>194.8207248832232</v>
+        <v>167.3927270171071</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.2324952225947</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R42" t="n">
         <v>63.34425516667989</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>147.9262938254759</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K43" t="n">
-        <v>299.7044993743743</v>
+        <v>376.9079738537063</v>
       </c>
       <c r="L43" t="n">
-        <v>127.1647388045658</v>
+        <v>414.2498637777605</v>
       </c>
       <c r="M43" t="n">
         <v>134.077387257376</v>
       </c>
       <c r="N43" t="n">
-        <v>577.615390461692</v>
+        <v>130.8893266660912</v>
       </c>
       <c r="O43" t="n">
         <v>544.8058107788468</v>
@@ -37958,10 +37958,10 @@
         <v>454.4657429249294</v>
       </c>
       <c r="Q43" t="n">
-        <v>71.62250269835249</v>
+        <v>241.5141944805064</v>
       </c>
       <c r="R43" t="n">
-        <v>17.25525370976871</v>
+        <v>17.2552537097687</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>73.10001548790865</v>
+        <v>73.10001548790861</v>
       </c>
       <c r="J44" t="n">
         <v>161.8388735304147</v>
       </c>
       <c r="K44" t="n">
-        <v>242.5545190220121</v>
+        <v>242.554519022012</v>
       </c>
       <c r="L44" t="n">
-        <v>300.9103289845323</v>
+        <v>300.9103289845318</v>
       </c>
       <c r="M44" t="n">
         <v>334.8207202085148</v>
       </c>
       <c r="N44" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057742</v>
       </c>
       <c r="O44" t="n">
-        <v>321.2775387271997</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P44" t="n">
-        <v>274.2029462851065</v>
+        <v>274.2029462851062</v>
       </c>
       <c r="Q44" t="n">
-        <v>205.914993198222</v>
+        <v>205.9149931982215</v>
       </c>
       <c r="R44" t="n">
-        <v>119.7792148856965</v>
+        <v>119.779214885697</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>35.12661790466491</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J45" t="n">
-        <v>96.39012436743783</v>
+        <v>68.96212650132208</v>
       </c>
       <c r="K45" t="n">
-        <v>164.7460753370762</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L45" t="n">
-        <v>221.521429219164</v>
+        <v>221.5214292191638</v>
       </c>
       <c r="M45" t="n">
-        <v>258.5050594079607</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N45" t="n">
-        <v>265.3469191246784</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O45" t="n">
-        <v>215.312593404502</v>
+        <v>242.7405912706188</v>
       </c>
       <c r="P45" t="n">
-        <v>194.8207248832232</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.2324952225947</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R45" t="n">
         <v>63.34425516667989</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>60.47206638639527</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K46" t="n">
-        <v>99.37418135760981</v>
+        <v>241.5588748188595</v>
       </c>
       <c r="L46" t="n">
-        <v>127.1647388045658</v>
+        <v>549.5989628126073</v>
       </c>
       <c r="M46" t="n">
-        <v>598.2025056219347</v>
+        <v>134.077387257376</v>
       </c>
       <c r="N46" t="n">
-        <v>577.6153904616918</v>
+        <v>130.8893266660912</v>
       </c>
       <c r="O46" t="n">
-        <v>544.8058107788465</v>
+        <v>544.8058107788468</v>
       </c>
       <c r="P46" t="n">
-        <v>278.1251700162165</v>
+        <v>454.4657429249294</v>
       </c>
       <c r="Q46" t="n">
-        <v>71.62250269835249</v>
+        <v>241.5141944805064</v>
       </c>
       <c r="R46" t="n">
-        <v>17.25525370976871</v>
+        <v>17.2552537097687</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
